--- a/Test Execution/Sangeetha/Testcase- Insurance.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="734">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -2541,6 +2541,136 @@
   </si>
   <si>
     <t>Select status "Approved"</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_104</t>
+  </si>
+  <si>
+    <t>Search OP Bills for 1st review</t>
+  </si>
+  <si>
+    <t>Precondition: OP Bill should be generated</t>
+  </si>
+  <si>
+    <t>Launch Application</t>
+  </si>
+  <si>
+    <t>Select Insurance module</t>
+  </si>
+  <si>
+    <t>Select 1st review tab</t>
+  </si>
+  <si>
+    <t>Select insurance and check OP Bills radio button and select search option</t>
+  </si>
+  <si>
+    <t>Insurance dashboard should be displayed</t>
+  </si>
+  <si>
+    <t>Search view with following fields to enter should be displayed:
+1) Billed from and to date
+2) Speciality
+3) Doctor
+4) TPA
+5) Insurance
+6) Type 
+7) Diagnosys Entry</t>
+  </si>
+  <si>
+    <t>Bill list based on selected fields should be displayed</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_105</t>
+  </si>
+  <si>
+    <t>Search IP Bills for 1st review</t>
+  </si>
+  <si>
+    <t>Precondition: IP Bill should be generated</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_106</t>
+  </si>
+  <si>
+    <t>Search Pharmacy Bills for 1st review</t>
+  </si>
+  <si>
+    <t>Precondition: Pharmacy Bill should be generated</t>
+  </si>
+  <si>
+    <t>Search OP Bills for Auditing</t>
+  </si>
+  <si>
+    <t>Search IP Bills for Auditing</t>
+  </si>
+  <si>
+    <t>Search Pharmacy Bills for Auditing</t>
+  </si>
+  <si>
+    <t>Patient id: NH00000595</t>
+  </si>
+  <si>
+    <t>Search IP Bills for 2nd review</t>
+  </si>
+  <si>
+    <t>Search OP Bills for 2nd review</t>
+  </si>
+  <si>
+    <t>Search Pharmacy Bills for 2nd review</t>
+  </si>
+  <si>
+    <t>Patient id: NH00000959</t>
+  </si>
+  <si>
+    <t>Patient id: NH00000123</t>
+  </si>
+  <si>
+    <t>Bill is not displaying</t>
+  </si>
+  <si>
+    <t>Select 2nd review tab</t>
+  </si>
+  <si>
+    <t>Select 2st review tab</t>
+  </si>
+  <si>
+    <t>Select Auditing tab</t>
+  </si>
+  <si>
+    <t>Precondition: Pharmacy Bill should be generated and passed 1nd and 2nd review</t>
+  </si>
+  <si>
+    <t>Precondition: IP Bill should be generated and passed 1st and 2nd Review</t>
+  </si>
+  <si>
+    <t>Precondition: OP Bill should be generated and passed 1st and 2nd review</t>
+  </si>
+  <si>
+    <t>Precondition: IP Bill should be generated and passed 1st review</t>
+  </si>
+  <si>
+    <t>Precondition: Pharmacy Bill should be generated and passed 1st  review</t>
+  </si>
+  <si>
+    <t>Precondition: OP Bill should be generated and passed 1st review</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_107</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_108</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_109</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_110</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_111</t>
+  </si>
+  <si>
+    <t>MED_Insurance_TC_112</t>
   </si>
 </sst>
 </file>
@@ -2607,7 +2737,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2635,6 +2765,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2667,7 +2803,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2742,16 +2878,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3059,7 +3204,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3067,11 +3212,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S780"/>
+  <dimension ref="A1:S834"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L673" sqref="L673"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3133,14 +3278,14 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="R1" s="29" t="s">
+      <c r="P1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="29"/>
+      <c r="S1" s="31"/>
     </row>
     <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -3171,14 +3316,14 @@
       </c>
       <c r="P2" s="4">
         <f>COUNTA(A:A)-1</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="S2" s="6">
         <f>COUNTIF(L:L,"Pass")</f>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="13" customFormat="1" ht="30">
@@ -3210,14 +3355,14 @@
       </c>
       <c r="P3" s="4">
         <f>COUNTA(L:L)-1</f>
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="R3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="S3" s="6">
         <f>COUNTIF(L:L,"Fail")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" s="13" customFormat="1" ht="30">
@@ -3251,7 +3396,7 @@
       </c>
       <c r="S4" s="6">
         <f>COUNTIF(L:L,"Blocked")</f>
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="150">
@@ -3273,7 +3418,7 @@
       </c>
       <c r="S5" s="6">
         <f>COUNTA(M:M)-1</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45">
@@ -5350,7 +5495,7 @@
         <v>337</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="30"/>
+      <c r="M165" s="28"/>
     </row>
     <row r="166" spans="1:13" ht="30">
       <c r="E166" s="11">
@@ -5368,7 +5513,7 @@
       <c r="L166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M166" s="31" t="s">
+      <c r="M166" s="29" t="s">
         <v>404</v>
       </c>
     </row>
@@ -12581,9 +12726,687 @@
       </c>
     </row>
     <row r="780" spans="1:12">
-      <c r="J780" s="11"/>
-      <c r="K780" s="25"/>
+      <c r="A780" s="32"/>
+      <c r="B780" s="32"/>
+      <c r="C780" s="33"/>
+      <c r="D780" s="32"/>
+      <c r="E780" s="32"/>
+      <c r="F780" s="32"/>
+      <c r="G780" s="32"/>
+      <c r="H780" s="32"/>
+      <c r="I780" s="32"/>
+      <c r="J780" s="32"/>
+      <c r="K780" s="34"/>
       <c r="L780" s="22"/>
+    </row>
+    <row r="782" spans="1:12" ht="30">
+      <c r="A782" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="B782" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C782" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D782" s="11" t="s">
+        <v>694</v>
+      </c>
+      <c r="F782" s="11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12">
+      <c r="E783" s="11">
+        <v>1</v>
+      </c>
+      <c r="F783" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" ht="30">
+      <c r="E784" s="11">
+        <v>2</v>
+      </c>
+      <c r="F784" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G784" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H784" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12" ht="150">
+      <c r="E785" s="11">
+        <v>3</v>
+      </c>
+      <c r="F785" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="G785" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H785" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I785" s="11" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12" ht="30">
+      <c r="E786" s="11">
+        <v>4</v>
+      </c>
+      <c r="F786" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G786" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H786" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K786" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L786" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" ht="30">
+      <c r="A788" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B788" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C788" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D788" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="F788" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12">
+      <c r="E789" s="11">
+        <v>1</v>
+      </c>
+      <c r="F789" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H789" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12" ht="30">
+      <c r="E790" s="11">
+        <v>2</v>
+      </c>
+      <c r="F790" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G790" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H790" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12" ht="150">
+      <c r="E791" s="11">
+        <v>3</v>
+      </c>
+      <c r="F791" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="G791" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H791" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I791" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12" ht="30">
+      <c r="E792" s="11">
+        <v>4</v>
+      </c>
+      <c r="F792" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G792" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H792" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K792" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L792" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" ht="30">
+      <c r="A794" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="B794" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C794" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D794" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="F794" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12">
+      <c r="E795" s="11">
+        <v>1</v>
+      </c>
+      <c r="F795" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" ht="30">
+      <c r="E796" s="11">
+        <v>2</v>
+      </c>
+      <c r="F796" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G796" s="11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" ht="154.5" customHeight="1">
+      <c r="E797" s="11">
+        <v>3</v>
+      </c>
+      <c r="F797" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="G797" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="I797" s="11" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" ht="30">
+      <c r="E798" s="11">
+        <v>4</v>
+      </c>
+      <c r="F798" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G798" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H798" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="K798" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L798" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" ht="30">
+      <c r="A800" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="B800" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C800" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D800" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="F800" s="11" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="801" spans="1:13">
+      <c r="E801" s="11">
+        <v>1</v>
+      </c>
+      <c r="F801" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H801" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="802" spans="1:13" ht="30">
+      <c r="E802" s="11">
+        <v>2</v>
+      </c>
+      <c r="F802" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G802" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H802" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="803" spans="1:13" ht="155.25" customHeight="1">
+      <c r="E803" s="11">
+        <v>3</v>
+      </c>
+      <c r="F803" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="G803" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H803" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="804" spans="1:13" ht="30">
+      <c r="E804" s="11">
+        <v>4</v>
+      </c>
+      <c r="F804" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G804" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H804" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="L804" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="M804" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="806" spans="1:13" ht="30">
+      <c r="A806" s="11" t="s">
+        <v>729</v>
+      </c>
+      <c r="B806" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C806" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D806" s="11" t="s">
+        <v>713</v>
+      </c>
+      <c r="F806" s="11" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="807" spans="1:13">
+      <c r="E807" s="11">
+        <v>1</v>
+      </c>
+      <c r="F807" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H807" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="808" spans="1:13" ht="30">
+      <c r="E808" s="11">
+        <v>2</v>
+      </c>
+      <c r="F808" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G808" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H808" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="809" spans="1:13" ht="157.5" customHeight="1">
+      <c r="E809" s="11">
+        <v>3</v>
+      </c>
+      <c r="F809" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="G809" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H809" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="I809" s="11" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="810" spans="1:13" ht="30">
+      <c r="E810" s="11">
+        <v>4</v>
+      </c>
+      <c r="F810" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G810" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H810" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K810" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L810" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="812" spans="1:13" ht="30">
+      <c r="A812" s="11" t="s">
+        <v>730</v>
+      </c>
+      <c r="B812" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C812" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D812" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="F812" s="11" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="813" spans="1:13">
+      <c r="E813" s="11">
+        <v>1</v>
+      </c>
+      <c r="F813" s="11" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="814" spans="1:13" ht="30">
+      <c r="E814" s="11">
+        <v>2</v>
+      </c>
+      <c r="F814" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G814" s="11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="815" spans="1:13" ht="150">
+      <c r="E815" s="11">
+        <v>3</v>
+      </c>
+      <c r="F815" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="G815" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="816" spans="1:13" ht="30">
+      <c r="E816" s="11">
+        <v>4</v>
+      </c>
+      <c r="F816" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G816" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="K816" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L816" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" ht="45">
+      <c r="A818" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B818" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C818" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D818" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="F818" s="11" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12">
+      <c r="E819" s="11">
+        <v>1</v>
+      </c>
+      <c r="F819" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H819" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" ht="30">
+      <c r="E820" s="11">
+        <v>2</v>
+      </c>
+      <c r="F820" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G820" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H820" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" ht="150">
+      <c r="E821" s="11">
+        <v>3</v>
+      </c>
+      <c r="F821" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="G821" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H821" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" ht="30">
+      <c r="E822" s="11">
+        <v>4</v>
+      </c>
+      <c r="F822" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G822" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H822" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K822" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L822" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" ht="45">
+      <c r="A824" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="B824" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C824" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D824" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="F824" s="11" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12">
+      <c r="E825" s="11">
+        <v>1</v>
+      </c>
+      <c r="F825" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H825" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" ht="30">
+      <c r="E826" s="11">
+        <v>2</v>
+      </c>
+      <c r="F826" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G826" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H826" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" ht="150">
+      <c r="E827" s="11">
+        <v>3</v>
+      </c>
+      <c r="F827" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="G827" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H827" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" ht="30">
+      <c r="E828" s="11">
+        <v>4</v>
+      </c>
+      <c r="F828" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G828" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="H828" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="K828" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L828" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" ht="45">
+      <c r="A830" s="11" t="s">
+        <v>733</v>
+      </c>
+      <c r="B830" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C830" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D830" s="11" t="s">
+        <v>711</v>
+      </c>
+      <c r="F830" s="11" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12">
+      <c r="E831" s="11">
+        <v>1</v>
+      </c>
+      <c r="F831" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="H831" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" ht="30">
+      <c r="E832" s="11">
+        <v>2</v>
+      </c>
+      <c r="F832" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="G832" s="11" t="s">
+        <v>700</v>
+      </c>
+      <c r="H832" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="833" spans="5:12" ht="150">
+      <c r="E833" s="11">
+        <v>3</v>
+      </c>
+      <c r="F833" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="G833" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="H833" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="834" spans="5:12" ht="30">
+      <c r="E834" s="11">
+        <v>4</v>
+      </c>
+      <c r="F834" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G834" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="K834" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="L834" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="L1:L780"/>
@@ -12593,10 +13416,16 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K781:K1048576 K56:K398 C58:C110 C113:C333 C2:C47 C49:C56 K2:K47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L822 L834 L828 L816 L810 L399:L622 L624:L722 L724:L780 L2:L47 L56:L397 L786 L792 M804 L798">
+      <formula1>"Pass, Fail, Blocked"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K822 K834 K828 K816 K810 K691 K779 K773 K732 K742 K750 K758 K766 K786 K792 L804 K798">
+      <formula1>"Anjana S, Salini S, Preethi Pathrose, Leona, Parvathy, Raziya, Rijo"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K47 K823 K817:K821 K829:K833 K825:K827 K835:K1048576 K811:K815 K799:K809 C58:C110 C113:C333 C2:C47 C49:C56 K781:K785 K787:K791 K793:K797 K56:K398">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C776:C779 C769:C772 C761:C764 C753:C756 C745:C748 C737:C740 K538 K526 K520 K399:K515 C670:C674 C399:C667 C718:C727 C712:C716 C706:C710 C700:C704 C694:C698 C688:C692 C682:C686 C676:C680 C732:C735">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C776:C779 C769:C772 C761:C764 C753:C756 C745:C748 C737:C740 K538 K526 K520 K399:K515 C670:C674 C399:C667 C718:C727 C712:C716 C706:C710 C700:C704 C694:C698 C688:C692 C682:C686 C676:C680 C732:C735 C782 C788 C794 C800 C806 C812 C818 C824 C830 C836">
       <formula1>"Anjana S, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C780 C773:C774 C765:C767 C757:C759 C749:C751 C741:C743 C668:C669 C717 C711 C705 C699 C693 C687 C681 C675 C728:C731 C736">
@@ -12604,12 +13433,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B399 B405:B406 B412:B413 B420 B14:B16 B8 B22:B25 B30:B32 B38:B40 B135 B127 B119 B125 B113 B103:B104 B97 B95 B89 B87 B80:B81 B149 B143 B214:B215 B196 B182 B169 B167 B72:B74 B66 B209 B203 B58 B56 B49 B189 B177 B160 B157 B151 B133 B141 B221 B237:B238 B228:B230 B240 B254:B255 B247 B263 B311 B319:B320 B287 B326:B327 B289 B295:B296 B281 B302:B303 B309 B273 B279 B2">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L399:L622 L624:L722 L724:L780 L2:L47 L56:L397">
-      <formula1>"Pass, Fail, Blocked"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K691 K779 K773 K732 K742 K750 K758 K766">
-      <formula1>"Anjana S, Salini S, Preethi Pathrose, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K516:K519 K780 K774:K778 K767:K772 K539:K690 K521:K525 K724 K719 K712 K706 K700 K527:K537 K733:K741 K743:K749 K751:K757 K759:K765 K692:K695">
       <formula1>"Anjana S, Salini S, Preethi J, Leona, Parvathy, Raziya, Rijo"</formula1>

--- a/Test Execution/Sangeetha/Testcase- Insurance.xlsx
+++ b/Test Execution/Sangeetha/Testcase- Insurance.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mediware\Mediware-Repository\Test Execution\Sangeetha\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F365E848-B211-4686-A3DB-C35963115AE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20550" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insurance" sheetId="1" r:id="rId1"/>
@@ -14,9 +20,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Insurance!$L$1:$L$780</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2546,8 +2552,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2742,16 +2748,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3059,22 +3065,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S780"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A633" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L673" sqref="L673"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="11" customWidth="1"/>
     <col min="2" max="2" width="17" style="11" customWidth="1"/>
@@ -3093,7 +3099,7 @@
     <col min="16" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="10" customFormat="1">
+    <row r="1" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3133,16 +3139,16 @@
       <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="R1" s="29" t="s">
+      <c r="P1" s="30"/>
+      <c r="R1" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="29"/>
-    </row>
-    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1">
+      <c r="S1" s="31"/>
+    </row>
+    <row r="2" spans="1:19" s="13" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>28</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="30">
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="5"/>
@@ -3220,7 +3226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="13" customFormat="1" ht="30">
+    <row r="4" spans="1:19" s="13" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="5"/>
@@ -3254,7 +3260,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="150">
+    <row r="5" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="E5" s="11">
         <v>3</v>
       </c>
@@ -3276,7 +3282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="45">
+    <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E6" s="11">
         <v>4</v>
       </c>
@@ -3295,12 +3301,12 @@
       <c r="R6" s="7"/>
       <c r="S6" s="6"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L7" s="4"/>
       <c r="R7" s="7"/>
       <c r="S7" s="6"/>
     </row>
-    <row r="8" spans="1:19" ht="45">
+    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>37</v>
       </c>
@@ -3318,7 +3324,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E9" s="11">
         <v>1</v>
       </c>
@@ -3336,7 +3342,7 @@
       </c>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E10" s="11">
         <v>2</v>
       </c>
@@ -3351,7 +3357,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:19" ht="60">
+    <row r="11" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="E11" s="11">
         <v>3</v>
       </c>
@@ -3366,7 +3372,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:19" ht="30">
+    <row r="12" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="E12" s="11">
         <v>4</v>
       </c>
@@ -3384,7 +3390,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:19" ht="45">
+    <row r="13" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E13" s="11">
         <v>5</v>
       </c>
@@ -3399,7 +3405,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:19" ht="45">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="E14" s="11">
         <v>6</v>
       </c>
@@ -3416,10 +3422,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="1:19" ht="45">
+    <row r="16" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
@@ -3438,7 +3444,7 @@
       <c r="I16" s="14"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="11">
         <v>1</v>
       </c>
@@ -3456,7 +3462,7 @@
       </c>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="11">
         <v>2</v>
       </c>
@@ -3471,7 +3477,7 @@
       </c>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="60">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E19" s="11">
         <v>3</v>
       </c>
@@ -3486,7 +3492,7 @@
       </c>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="11">
         <v>4</v>
       </c>
@@ -3504,7 +3510,7 @@
       </c>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E21" s="11">
         <v>5</v>
       </c>
@@ -3519,7 +3525,7 @@
       </c>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E22" s="11">
         <v>6</v>
       </c>
@@ -3534,7 +3540,7 @@
       </c>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E23" s="11">
         <v>7</v>
       </c>
@@ -3551,10 +3557,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L24" s="4"/>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
@@ -3569,7 +3575,7 @@
       </c>
       <c r="L25" s="4"/>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E26" s="11">
         <v>1</v>
       </c>
@@ -3584,7 +3590,7 @@
       </c>
       <c r="L26" s="4"/>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E27" s="11">
         <v>2</v>
       </c>
@@ -3599,7 +3605,7 @@
       </c>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:12" ht="45">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E28" s="11">
         <v>3</v>
       </c>
@@ -3617,7 +3623,7 @@
       </c>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:12" ht="75">
+    <row r="29" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E29" s="11">
         <v>4</v>
       </c>
@@ -3632,7 +3638,7 @@
       </c>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E30" s="11">
         <v>5</v>
       </c>
@@ -3649,10 +3655,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L31" s="4"/>
     </row>
-    <row r="32" spans="1:12" ht="45">
+    <row r="32" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
@@ -3670,7 +3676,7 @@
       </c>
       <c r="L32" s="4"/>
     </row>
-    <row r="33" spans="1:12" ht="30">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E33" s="11">
         <v>1</v>
       </c>
@@ -3685,7 +3691,7 @@
       </c>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" spans="1:12" ht="30">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E34" s="11">
         <v>2</v>
       </c>
@@ -3700,7 +3706,7 @@
       </c>
       <c r="L34" s="4"/>
     </row>
-    <row r="35" spans="1:12" ht="45">
+    <row r="35" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E35" s="11">
         <v>3</v>
       </c>
@@ -3715,7 +3721,7 @@
       </c>
       <c r="L35" s="4"/>
     </row>
-    <row r="36" spans="1:12" ht="45">
+    <row r="36" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E36" s="11">
         <v>4</v>
       </c>
@@ -3730,7 +3736,7 @@
       </c>
       <c r="L36" s="4"/>
     </row>
-    <row r="37" spans="1:12" ht="45">
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E37" s="11">
         <v>5</v>
       </c>
@@ -3748,7 +3754,7 @@
       </c>
       <c r="L37" s="4"/>
     </row>
-    <row r="38" spans="1:12" ht="30">
+    <row r="38" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E38" s="11">
         <v>6</v>
       </c>
@@ -3765,10 +3771,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L39" s="4"/>
     </row>
-    <row r="40" spans="1:12" ht="45">
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>47</v>
       </c>
@@ -3783,7 +3789,7 @@
       </c>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="30">
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E41" s="11">
         <v>1</v>
       </c>
@@ -3798,7 +3804,7 @@
       </c>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="30">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E42" s="11">
         <v>2</v>
       </c>
@@ -3813,7 +3819,7 @@
       </c>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="60">
+    <row r="43" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E43" s="11">
         <v>3</v>
       </c>
@@ -3828,7 +3834,7 @@
       </c>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" ht="45">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="11">
         <v>4</v>
       </c>
@@ -3843,7 +3849,7 @@
       </c>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" ht="45">
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E45" s="11">
         <v>5</v>
       </c>
@@ -3858,7 +3864,7 @@
       </c>
       <c r="L45" s="4"/>
     </row>
-    <row r="46" spans="1:12" ht="45">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E46" s="11">
         <v>6</v>
       </c>
@@ -3875,10 +3881,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L47" s="4"/>
     </row>
-    <row r="49" spans="1:12" ht="45">
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>405</v>
       </c>
@@ -3892,7 +3898,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E50" s="11">
         <v>1</v>
       </c>
@@ -3906,7 +3912,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="30">
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E51" s="11">
         <v>2</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="60">
+    <row r="52" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E52" s="11">
         <v>3</v>
       </c>
@@ -3934,7 +3940,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="45">
+    <row r="53" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E53" s="11">
         <v>4</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45">
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E54" s="11">
         <v>5</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="30">
+    <row r="55" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E55" s="11">
         <v>6</v>
       </c>
@@ -3979,7 +3985,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="45">
+    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E56" s="11">
         <v>7</v>
       </c>
@@ -3996,10 +4002,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L57" s="4"/>
     </row>
-    <row r="58" spans="1:12" ht="60">
+    <row r="58" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>51</v>
       </c>
@@ -4014,7 +4020,7 @@
       </c>
       <c r="L58" s="4"/>
     </row>
-    <row r="59" spans="1:12" ht="30">
+    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E59" s="11">
         <v>1</v>
       </c>
@@ -4029,7 +4035,7 @@
       </c>
       <c r="L59" s="4"/>
     </row>
-    <row r="60" spans="1:12" ht="30">
+    <row r="60" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E60" s="11">
         <v>2</v>
       </c>
@@ -4044,7 +4050,7 @@
       </c>
       <c r="L60" s="4"/>
     </row>
-    <row r="61" spans="1:12" ht="60">
+    <row r="61" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E61" s="11">
         <v>3</v>
       </c>
@@ -4059,7 +4065,7 @@
       </c>
       <c r="L61" s="4"/>
     </row>
-    <row r="62" spans="1:12" ht="30">
+    <row r="62" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E62" s="11">
         <v>4</v>
       </c>
@@ -4074,7 +4080,7 @@
       </c>
       <c r="L62" s="4"/>
     </row>
-    <row r="63" spans="1:12" ht="45">
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E63" s="11">
         <v>5</v>
       </c>
@@ -4092,7 +4098,7 @@
       </c>
       <c r="L63" s="4"/>
     </row>
-    <row r="64" spans="1:12" ht="45">
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E64" s="11">
         <v>6</v>
       </c>
@@ -4109,10 +4115,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L65" s="4"/>
     </row>
-    <row r="66" spans="1:13" ht="60">
+    <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>56</v>
       </c>
@@ -4130,7 +4136,7 @@
       </c>
       <c r="L66" s="4"/>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E67" s="11">
         <v>1</v>
       </c>
@@ -4145,7 +4151,7 @@
       </c>
       <c r="L67" s="4"/>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E68" s="11">
         <v>2</v>
       </c>
@@ -4160,7 +4166,7 @@
       </c>
       <c r="L68" s="4"/>
     </row>
-    <row r="69" spans="1:13" ht="60">
+    <row r="69" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E69" s="11">
         <v>3</v>
       </c>
@@ -4175,7 +4181,7 @@
       </c>
       <c r="L69" s="4"/>
     </row>
-    <row r="70" spans="1:13" ht="30">
+    <row r="70" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E70" s="11">
         <v>4</v>
       </c>
@@ -4190,7 +4196,7 @@
       </c>
       <c r="L70" s="4"/>
     </row>
-    <row r="71" spans="1:13" ht="45">
+    <row r="71" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E71" s="11">
         <v>5</v>
       </c>
@@ -4211,7 +4217,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30">
+    <row r="72" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E72" s="11">
         <v>6</v>
       </c>
@@ -4234,10 +4240,10 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L73" s="4"/>
     </row>
-    <row r="74" spans="1:13" ht="60">
+    <row r="74" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>95</v>
       </c>
@@ -4255,7 +4261,7 @@
       </c>
       <c r="L74" s="4"/>
     </row>
-    <row r="75" spans="1:13" ht="30">
+    <row r="75" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E75" s="11">
         <v>1</v>
       </c>
@@ -4270,7 +4276,7 @@
       </c>
       <c r="L75" s="4"/>
     </row>
-    <row r="76" spans="1:13" ht="30">
+    <row r="76" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E76" s="11">
         <v>2</v>
       </c>
@@ -4285,7 +4291,7 @@
       </c>
       <c r="L76" s="4"/>
     </row>
-    <row r="77" spans="1:13" ht="60">
+    <row r="77" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E77" s="11">
         <v>3</v>
       </c>
@@ -4300,7 +4306,7 @@
       </c>
       <c r="L77" s="4"/>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E78" s="11">
         <v>4</v>
       </c>
@@ -4315,7 +4321,7 @@
       </c>
       <c r="L78" s="4"/>
     </row>
-    <row r="79" spans="1:13" ht="45">
+    <row r="79" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E79" s="11">
         <v>5</v>
       </c>
@@ -4332,10 +4338,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L80" s="4"/>
     </row>
-    <row r="81" spans="1:12" ht="60">
+    <row r="81" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>98</v>
       </c>
@@ -4353,7 +4359,7 @@
       </c>
       <c r="L81" s="4"/>
     </row>
-    <row r="82" spans="1:12" ht="53.25" customHeight="1">
+    <row r="82" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E82" s="11">
         <v>1</v>
       </c>
@@ -4365,7 +4371,7 @@
       </c>
       <c r="L82" s="4"/>
     </row>
-    <row r="83" spans="1:12" ht="30">
+    <row r="83" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E83" s="11">
         <v>2</v>
       </c>
@@ -4377,7 +4383,7 @@
       </c>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="60">
+    <row r="84" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E84" s="11">
         <v>3</v>
       </c>
@@ -4389,7 +4395,7 @@
       </c>
       <c r="L84" s="4"/>
     </row>
-    <row r="85" spans="1:12" ht="30">
+    <row r="85" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E85" s="11">
         <v>4</v>
       </c>
@@ -4401,7 +4407,7 @@
       </c>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="45">
+    <row r="86" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E86" s="11">
         <v>5</v>
       </c>
@@ -4413,7 +4419,7 @@
       </c>
       <c r="L86" s="4"/>
     </row>
-    <row r="87" spans="1:12" ht="30">
+    <row r="87" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E87" s="11">
         <v>6</v>
       </c>
@@ -4427,10 +4433,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L88" s="4"/>
     </row>
-    <row r="89" spans="1:12" ht="45">
+    <row r="89" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>99</v>
       </c>
@@ -4448,7 +4454,7 @@
       </c>
       <c r="L89" s="4"/>
     </row>
-    <row r="90" spans="1:12" ht="30">
+    <row r="90" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E90" s="11">
         <v>1</v>
       </c>
@@ -4460,7 +4466,7 @@
       </c>
       <c r="L90" s="4"/>
     </row>
-    <row r="91" spans="1:12" ht="30">
+    <row r="91" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E91" s="11">
         <v>2</v>
       </c>
@@ -4472,7 +4478,7 @@
       </c>
       <c r="L91" s="4"/>
     </row>
-    <row r="92" spans="1:12" ht="60">
+    <row r="92" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E92" s="11">
         <v>3</v>
       </c>
@@ -4484,7 +4490,7 @@
       </c>
       <c r="L92" s="4"/>
     </row>
-    <row r="93" spans="1:12" ht="30">
+    <row r="93" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E93" s="11">
         <v>4</v>
       </c>
@@ -4496,7 +4502,7 @@
       </c>
       <c r="L93" s="4"/>
     </row>
-    <row r="94" spans="1:12" ht="45">
+    <row r="94" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E94" s="11">
         <v>5</v>
       </c>
@@ -4510,13 +4516,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L95" s="4"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L96" s="4"/>
     </row>
-    <row r="97" spans="1:12" ht="45">
+    <row r="97" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>100</v>
       </c>
@@ -4537,7 +4543,7 @@
       </c>
       <c r="L97" s="4"/>
     </row>
-    <row r="98" spans="1:12" ht="30">
+    <row r="98" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E98" s="11">
         <v>1</v>
       </c>
@@ -4552,7 +4558,7 @@
       </c>
       <c r="L98" s="4"/>
     </row>
-    <row r="99" spans="1:12" ht="30">
+    <row r="99" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E99" s="11">
         <v>2</v>
       </c>
@@ -4567,7 +4573,7 @@
       </c>
       <c r="L99" s="4"/>
     </row>
-    <row r="100" spans="1:12" ht="60">
+    <row r="100" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E100" s="11">
         <v>3</v>
       </c>
@@ -4582,7 +4588,7 @@
       </c>
       <c r="L100" s="4"/>
     </row>
-    <row r="101" spans="1:12" ht="30">
+    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E101" s="11">
         <v>4</v>
       </c>
@@ -4597,7 +4603,7 @@
       </c>
       <c r="L101" s="4"/>
     </row>
-    <row r="102" spans="1:12" ht="60">
+    <row r="102" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E102" s="11">
         <v>5</v>
       </c>
@@ -4614,10 +4620,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L103" s="4"/>
     </row>
-    <row r="104" spans="1:12" ht="45">
+    <row r="104" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>101</v>
       </c>
@@ -4632,7 +4638,7 @@
       </c>
       <c r="L104" s="4"/>
     </row>
-    <row r="105" spans="1:12" ht="30">
+    <row r="105" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E105" s="11">
         <v>1</v>
       </c>
@@ -4644,7 +4650,7 @@
       </c>
       <c r="L105" s="4"/>
     </row>
-    <row r="106" spans="1:12" ht="30">
+    <row r="106" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E106" s="11">
         <v>2</v>
       </c>
@@ -4656,7 +4662,7 @@
       </c>
       <c r="L106" s="4"/>
     </row>
-    <row r="107" spans="1:12" ht="60">
+    <row r="107" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E107" s="11">
         <v>3</v>
       </c>
@@ -4668,7 +4674,7 @@
       </c>
       <c r="L107" s="4"/>
     </row>
-    <row r="108" spans="1:12" ht="30">
+    <row r="108" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E108" s="11">
         <v>4</v>
       </c>
@@ -4680,7 +4686,7 @@
       </c>
       <c r="L108" s="4"/>
     </row>
-    <row r="109" spans="1:12" ht="45">
+    <row r="109" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E109" s="11">
         <v>5</v>
       </c>
@@ -4692,7 +4698,7 @@
       </c>
       <c r="L109" s="4"/>
     </row>
-    <row r="110" spans="1:12" ht="30">
+    <row r="110" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E110" s="11">
         <v>6</v>
       </c>
@@ -4704,7 +4710,7 @@
       </c>
       <c r="L110" s="4"/>
     </row>
-    <row r="111" spans="1:12" ht="30">
+    <row r="111" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E111" s="11">
         <v>7</v>
       </c>
@@ -4718,10 +4724,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L112" s="4"/>
     </row>
-    <row r="113" spans="1:12" ht="45">
+    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>102</v>
       </c>
@@ -4736,7 +4742,7 @@
       </c>
       <c r="L113" s="4"/>
     </row>
-    <row r="114" spans="1:12" ht="30">
+    <row r="114" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E114" s="11">
         <v>1</v>
       </c>
@@ -4751,7 +4757,7 @@
       </c>
       <c r="L114" s="4"/>
     </row>
-    <row r="115" spans="1:12" ht="30">
+    <row r="115" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E115" s="11">
         <v>2</v>
       </c>
@@ -4766,7 +4772,7 @@
       </c>
       <c r="L115" s="4"/>
     </row>
-    <row r="116" spans="1:12" ht="60">
+    <row r="116" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E116" s="11">
         <v>3</v>
       </c>
@@ -4781,7 +4787,7 @@
       </c>
       <c r="L116" s="4"/>
     </row>
-    <row r="117" spans="1:12" ht="30">
+    <row r="117" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E117" s="11">
         <v>4</v>
       </c>
@@ -4798,10 +4804,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L118" s="4"/>
     </row>
-    <row r="119" spans="1:12" ht="45">
+    <row r="119" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>103</v>
       </c>
@@ -4816,7 +4822,7 @@
       </c>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="30">
+    <row r="120" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E120" s="11">
         <v>1</v>
       </c>
@@ -4828,7 +4834,7 @@
       </c>
       <c r="L120" s="4"/>
     </row>
-    <row r="121" spans="1:12" ht="30">
+    <row r="121" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E121" s="11">
         <v>2</v>
       </c>
@@ -4840,7 +4846,7 @@
       </c>
       <c r="L121" s="4"/>
     </row>
-    <row r="122" spans="1:12" ht="60">
+    <row r="122" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E122" s="11">
         <v>3</v>
       </c>
@@ -4852,7 +4858,7 @@
       </c>
       <c r="L122" s="4"/>
     </row>
-    <row r="123" spans="1:12" ht="30">
+    <row r="123" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E123" s="11">
         <v>4</v>
       </c>
@@ -4864,7 +4870,7 @@
       </c>
       <c r="L123" s="4"/>
     </row>
-    <row r="124" spans="1:12" ht="45">
+    <row r="124" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E124" s="11">
         <v>5</v>
       </c>
@@ -4876,7 +4882,7 @@
       </c>
       <c r="L124" s="4"/>
     </row>
-    <row r="125" spans="1:12" ht="30">
+    <row r="125" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E125" s="11">
         <v>6</v>
       </c>
@@ -4890,10 +4896,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L126" s="4"/>
     </row>
-    <row r="127" spans="1:12" ht="45">
+    <row r="127" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>104</v>
       </c>
@@ -4908,7 +4914,7 @@
       </c>
       <c r="L127" s="4"/>
     </row>
-    <row r="128" spans="1:12" ht="30">
+    <row r="128" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E128" s="11">
         <v>1</v>
       </c>
@@ -4920,7 +4926,7 @@
       </c>
       <c r="L128" s="4"/>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E129" s="11">
         <v>2</v>
       </c>
@@ -4932,7 +4938,7 @@
       </c>
       <c r="L129" s="4"/>
     </row>
-    <row r="130" spans="1:12" ht="60">
+    <row r="130" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E130" s="11">
         <v>3</v>
       </c>
@@ -4944,7 +4950,7 @@
       </c>
       <c r="L130" s="4"/>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E131" s="11">
         <v>4</v>
       </c>
@@ -4956,7 +4962,7 @@
       </c>
       <c r="L131" s="4"/>
     </row>
-    <row r="132" spans="1:12" ht="45">
+    <row r="132" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E132" s="11">
         <v>5</v>
       </c>
@@ -4968,7 +4974,7 @@
       </c>
       <c r="L132" s="4"/>
     </row>
-    <row r="133" spans="1:12" ht="45">
+    <row r="133" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E133" s="11">
         <v>6</v>
       </c>
@@ -4982,10 +4988,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L134" s="4"/>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>105</v>
       </c>
@@ -5000,7 +5006,7 @@
       </c>
       <c r="L135" s="4"/>
     </row>
-    <row r="136" spans="1:12" ht="30">
+    <row r="136" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E136" s="11">
         <v>1</v>
       </c>
@@ -5012,7 +5018,7 @@
       </c>
       <c r="L136" s="4"/>
     </row>
-    <row r="137" spans="1:12" ht="30">
+    <row r="137" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E137" s="11">
         <v>2</v>
       </c>
@@ -5024,7 +5030,7 @@
       </c>
       <c r="L137" s="4"/>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E138" s="11">
         <v>3</v>
       </c>
@@ -5036,7 +5042,7 @@
       </c>
       <c r="L138" s="4"/>
     </row>
-    <row r="139" spans="1:12" ht="30">
+    <row r="139" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E139" s="11">
         <v>4</v>
       </c>
@@ -5048,7 +5054,7 @@
       </c>
       <c r="L139" s="4"/>
     </row>
-    <row r="140" spans="1:12" ht="45">
+    <row r="140" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E140" s="11">
         <v>5</v>
       </c>
@@ -5060,7 +5066,7 @@
       </c>
       <c r="L140" s="4"/>
     </row>
-    <row r="141" spans="1:12" ht="30">
+    <row r="141" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E141" s="11">
         <v>6</v>
       </c>
@@ -5074,10 +5080,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L142" s="4"/>
     </row>
-    <row r="143" spans="1:12" ht="45">
+    <row r="143" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="19" t="s">
         <v>106</v>
       </c>
@@ -5092,7 +5098,7 @@
       </c>
       <c r="L143" s="4"/>
     </row>
-    <row r="144" spans="1:12" ht="30">
+    <row r="144" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E144" s="11">
         <v>1</v>
       </c>
@@ -5104,7 +5110,7 @@
       </c>
       <c r="L144" s="4"/>
     </row>
-    <row r="145" spans="1:12" ht="30">
+    <row r="145" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E145" s="11">
         <v>2</v>
       </c>
@@ -5116,7 +5122,7 @@
       </c>
       <c r="L145" s="4"/>
     </row>
-    <row r="146" spans="1:12" ht="60">
+    <row r="146" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E146" s="11">
         <v>3</v>
       </c>
@@ -5128,7 +5134,7 @@
       </c>
       <c r="L146" s="4"/>
     </row>
-    <row r="147" spans="1:12" ht="30">
+    <row r="147" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E147" s="11">
         <v>4</v>
       </c>
@@ -5140,7 +5146,7 @@
       </c>
       <c r="L147" s="4"/>
     </row>
-    <row r="148" spans="1:12" ht="45">
+    <row r="148" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E148" s="11">
         <v>5</v>
       </c>
@@ -5152,7 +5158,7 @@
       </c>
       <c r="L148" s="4"/>
     </row>
-    <row r="149" spans="1:12" ht="45">
+    <row r="149" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E149" s="11">
         <v>6</v>
       </c>
@@ -5166,10 +5172,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L150" s="4"/>
     </row>
-    <row r="151" spans="1:12" ht="45">
+    <row r="151" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="19" t="s">
         <v>107</v>
       </c>
@@ -5184,7 +5190,7 @@
       </c>
       <c r="L151" s="4"/>
     </row>
-    <row r="152" spans="1:12" ht="30">
+    <row r="152" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E152" s="11">
         <v>1</v>
       </c>
@@ -5196,7 +5202,7 @@
       </c>
       <c r="L152" s="4"/>
     </row>
-    <row r="153" spans="1:12" ht="30">
+    <row r="153" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E153" s="11">
         <v>2</v>
       </c>
@@ -5208,7 +5214,7 @@
       </c>
       <c r="L153" s="4"/>
     </row>
-    <row r="154" spans="1:12" ht="60">
+    <row r="154" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E154" s="11">
         <v>3</v>
       </c>
@@ -5220,7 +5226,7 @@
       </c>
       <c r="L154" s="4"/>
     </row>
-    <row r="155" spans="1:12" ht="30">
+    <row r="155" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E155" s="11">
         <v>4</v>
       </c>
@@ -5232,7 +5238,7 @@
       </c>
       <c r="L155" s="4"/>
     </row>
-    <row r="156" spans="1:12" ht="45">
+    <row r="156" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E156" s="11">
         <v>5</v>
       </c>
@@ -5244,7 +5250,7 @@
       </c>
       <c r="L156" s="4"/>
     </row>
-    <row r="157" spans="1:12" ht="30">
+    <row r="157" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E157" s="11">
         <v>6</v>
       </c>
@@ -5258,13 +5264,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L158" s="4"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L159" s="4"/>
     </row>
-    <row r="160" spans="1:12" ht="45">
+    <row r="160" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
         <v>108</v>
       </c>
@@ -5279,7 +5285,7 @@
       </c>
       <c r="L160" s="4"/>
     </row>
-    <row r="161" spans="1:13" ht="30">
+    <row r="161" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E161" s="11">
         <v>1</v>
       </c>
@@ -5294,7 +5300,7 @@
       </c>
       <c r="L161" s="4"/>
     </row>
-    <row r="162" spans="1:13" ht="30">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E162" s="11">
         <v>2</v>
       </c>
@@ -5309,7 +5315,7 @@
       </c>
       <c r="L162" s="4"/>
     </row>
-    <row r="163" spans="1:13" ht="60">
+    <row r="163" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E163" s="11">
         <v>3</v>
       </c>
@@ -5324,7 +5330,7 @@
       </c>
       <c r="L163" s="4"/>
     </row>
-    <row r="164" spans="1:13" ht="30">
+    <row r="164" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E164" s="11">
         <v>4</v>
       </c>
@@ -5339,7 +5345,7 @@
       </c>
       <c r="L164" s="4"/>
     </row>
-    <row r="165" spans="1:13">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E165" s="11">
         <v>5</v>
       </c>
@@ -5350,9 +5356,9 @@
         <v>337</v>
       </c>
       <c r="L165" s="4"/>
-      <c r="M165" s="30"/>
-    </row>
-    <row r="166" spans="1:13" ht="30">
+      <c r="M165" s="28"/>
+    </row>
+    <row r="166" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E166" s="11">
         <v>5</v>
       </c>
@@ -5368,17 +5374,17 @@
       <c r="L166" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M166" s="31" t="s">
+      <c r="M166" s="29" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="167" spans="1:13">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L167" s="4"/>
     </row>
-    <row r="168" spans="1:13">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L168" s="4"/>
     </row>
-    <row r="169" spans="1:13" ht="45">
+    <row r="169" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A169" s="19" t="s">
         <v>113</v>
       </c>
@@ -5393,7 +5399,7 @@
       </c>
       <c r="L169" s="4"/>
     </row>
-    <row r="170" spans="1:13" ht="30">
+    <row r="170" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E170" s="11">
         <v>1</v>
       </c>
@@ -5408,7 +5414,7 @@
       </c>
       <c r="L170" s="4"/>
     </row>
-    <row r="171" spans="1:13" ht="30">
+    <row r="171" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E171" s="11">
         <v>2</v>
       </c>
@@ -5423,7 +5429,7 @@
       </c>
       <c r="L171" s="4"/>
     </row>
-    <row r="172" spans="1:13" ht="60">
+    <row r="172" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E172" s="11">
         <v>3</v>
       </c>
@@ -5438,7 +5444,7 @@
       </c>
       <c r="L172" s="4"/>
     </row>
-    <row r="173" spans="1:13" ht="30">
+    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E173" s="11">
         <v>4</v>
       </c>
@@ -5453,7 +5459,7 @@
       </c>
       <c r="L173" s="4"/>
     </row>
-    <row r="174" spans="1:13" ht="45">
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E174" s="11">
         <v>5</v>
       </c>
@@ -5470,16 +5476,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:13">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G175" s="20"/>
       <c r="L175" s="4"/>
     </row>
-    <row r="176" spans="1:13">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F176" s="20"/>
       <c r="G176" s="20"/>
       <c r="L176" s="4"/>
     </row>
-    <row r="177" spans="1:13" ht="45">
+    <row r="177" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="19" t="s">
         <v>126</v>
       </c>
@@ -5494,7 +5500,7 @@
       </c>
       <c r="L177" s="4"/>
     </row>
-    <row r="178" spans="1:13" ht="30">
+    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E178" s="11">
         <v>1</v>
       </c>
@@ -5506,7 +5512,7 @@
       </c>
       <c r="L178" s="4"/>
     </row>
-    <row r="179" spans="1:13" ht="30">
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E179" s="11">
         <v>2</v>
       </c>
@@ -5518,7 +5524,7 @@
       </c>
       <c r="L179" s="4"/>
     </row>
-    <row r="180" spans="1:13" ht="90">
+    <row r="180" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="E180" s="11">
         <v>3</v>
       </c>
@@ -5532,10 +5538,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:13">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L181" s="4"/>
     </row>
-    <row r="182" spans="1:13" ht="45">
+    <row r="182" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>127</v>
       </c>
@@ -5550,7 +5556,7 @@
       </c>
       <c r="L182" s="4"/>
     </row>
-    <row r="183" spans="1:13" ht="30">
+    <row r="183" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E183" s="11">
         <v>1</v>
       </c>
@@ -5565,7 +5571,7 @@
       </c>
       <c r="L183" s="4"/>
     </row>
-    <row r="184" spans="1:13" ht="30">
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E184" s="11">
         <v>2</v>
       </c>
@@ -5580,7 +5586,7 @@
       </c>
       <c r="L184" s="4"/>
     </row>
-    <row r="185" spans="1:13" ht="30">
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E185" s="11">
         <v>3</v>
       </c>
@@ -5595,7 +5601,7 @@
       </c>
       <c r="L185" s="4"/>
     </row>
-    <row r="186" spans="1:13" ht="45">
+    <row r="186" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E186" s="11">
         <v>4</v>
       </c>
@@ -5618,15 +5624,15 @@
         <v>388</v>
       </c>
     </row>
-    <row r="187" spans="1:13">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L187" s="4"/>
     </row>
-    <row r="188" spans="1:13">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F188" s="15"/>
       <c r="G188" s="15"/>
       <c r="L188" s="4"/>
     </row>
-    <row r="189" spans="1:13" ht="45">
+    <row r="189" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="11" t="s">
         <v>128</v>
       </c>
@@ -5641,7 +5647,7 @@
       </c>
       <c r="L189" s="4"/>
     </row>
-    <row r="190" spans="1:13" ht="30">
+    <row r="190" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E190" s="11">
         <v>1</v>
       </c>
@@ -5656,7 +5662,7 @@
       </c>
       <c r="L190" s="4"/>
     </row>
-    <row r="191" spans="1:13" ht="30">
+    <row r="191" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E191" s="11">
         <v>2</v>
       </c>
@@ -5671,7 +5677,7 @@
       </c>
       <c r="L191" s="4"/>
     </row>
-    <row r="192" spans="1:13" ht="30">
+    <row r="192" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E192" s="11">
         <v>3</v>
       </c>
@@ -5686,7 +5692,7 @@
       </c>
       <c r="L192" s="4"/>
     </row>
-    <row r="193" spans="1:13" ht="45">
+    <row r="193" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E193" s="11">
         <v>4</v>
       </c>
@@ -5706,13 +5712,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:13">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L194" s="4"/>
     </row>
-    <row r="195" spans="1:13">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L195" s="4"/>
     </row>
-    <row r="196" spans="1:13" ht="60">
+    <row r="196" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" s="11" t="s">
         <v>129</v>
       </c>
@@ -5727,7 +5733,7 @@
       </c>
       <c r="L196" s="4"/>
     </row>
-    <row r="197" spans="1:13" ht="30">
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E197" s="11">
         <v>1</v>
       </c>
@@ -5742,7 +5748,7 @@
       </c>
       <c r="L197" s="4"/>
     </row>
-    <row r="198" spans="1:13" ht="30">
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E198" s="11">
         <v>2</v>
       </c>
@@ -5757,7 +5763,7 @@
       </c>
       <c r="L198" s="4"/>
     </row>
-    <row r="199" spans="1:13" ht="30">
+    <row r="199" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E199" s="11">
         <v>3</v>
       </c>
@@ -5772,7 +5778,7 @@
       </c>
       <c r="L199" s="4"/>
     </row>
-    <row r="200" spans="1:13" ht="195">
+    <row r="200" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="E200" s="11">
         <v>4</v>
       </c>
@@ -5787,7 +5793,7 @@
       </c>
       <c r="L200" s="4"/>
     </row>
-    <row r="201" spans="1:13" ht="45">
+    <row r="201" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E201" s="11">
         <v>5</v>
       </c>
@@ -5807,12 +5813,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:13">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F202" s="5"/>
       <c r="G202" s="5"/>
       <c r="L202" s="4"/>
     </row>
-    <row r="203" spans="1:13" ht="45">
+    <row r="203" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>133</v>
       </c>
@@ -5827,7 +5833,7 @@
       </c>
       <c r="L203" s="4"/>
     </row>
-    <row r="204" spans="1:13" ht="30">
+    <row r="204" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F204" s="11" t="s">
         <v>22</v>
       </c>
@@ -5836,7 +5842,7 @@
       </c>
       <c r="L204" s="4"/>
     </row>
-    <row r="205" spans="1:13" ht="30">
+    <row r="205" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F205" s="11" t="s">
         <v>23</v>
       </c>
@@ -5845,7 +5851,7 @@
       </c>
       <c r="L205" s="4"/>
     </row>
-    <row r="206" spans="1:13" ht="45">
+    <row r="206" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F206" s="11" t="s">
         <v>131</v>
       </c>
@@ -5859,14 +5865,14 @@
         <v>403</v>
       </c>
     </row>
-    <row r="207" spans="1:13">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L207" s="4"/>
     </row>
-    <row r="208" spans="1:13">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G208" s="15"/>
       <c r="L208" s="4"/>
     </row>
-    <row r="209" spans="1:12" ht="45">
+    <row r="209" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A209" s="11" t="s">
         <v>134</v>
       </c>
@@ -5881,7 +5887,7 @@
       </c>
       <c r="L209" s="4"/>
     </row>
-    <row r="210" spans="1:12" ht="30">
+    <row r="210" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E210" s="11">
         <v>1</v>
       </c>
@@ -5896,7 +5902,7 @@
       </c>
       <c r="L210" s="4"/>
     </row>
-    <row r="211" spans="1:12" ht="30">
+    <row r="211" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E211" s="11">
         <v>2</v>
       </c>
@@ -5911,7 +5917,7 @@
       </c>
       <c r="L211" s="4"/>
     </row>
-    <row r="212" spans="1:12" ht="45">
+    <row r="212" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E212" s="11">
         <v>3</v>
       </c>
@@ -5926,7 +5932,7 @@
       </c>
       <c r="L212" s="4"/>
     </row>
-    <row r="213" spans="1:12" ht="30">
+    <row r="213" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E213" s="11">
         <v>4</v>
       </c>
@@ -5943,12 +5949,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C214" s="21"/>
       <c r="D214" s="15"/>
       <c r="L214" s="4"/>
     </row>
-    <row r="215" spans="1:12" ht="45">
+    <row r="215" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A215" s="19" t="s">
         <v>136</v>
       </c>
@@ -5963,7 +5969,7 @@
       </c>
       <c r="L215" s="4"/>
     </row>
-    <row r="216" spans="1:12" ht="30">
+    <row r="216" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E216" s="11">
         <v>1</v>
       </c>
@@ -5978,7 +5984,7 @@
       </c>
       <c r="L216" s="4"/>
     </row>
-    <row r="217" spans="1:12" ht="30">
+    <row r="217" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E217" s="11">
         <v>2</v>
       </c>
@@ -5993,7 +5999,7 @@
       </c>
       <c r="L217" s="4"/>
     </row>
-    <row r="218" spans="1:12" ht="75">
+    <row r="218" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E218" s="11">
         <v>3</v>
       </c>
@@ -6010,13 +6016,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L219" s="4"/>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220" s="4"/>
     </row>
-    <row r="221" spans="1:12" ht="60">
+    <row r="221" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" s="19" t="s">
         <v>169</v>
       </c>
@@ -6034,7 +6040,7 @@
       </c>
       <c r="L221" s="4"/>
     </row>
-    <row r="222" spans="1:12" ht="30">
+    <row r="222" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E222" s="11">
         <v>1</v>
       </c>
@@ -6049,7 +6055,7 @@
       </c>
       <c r="L222" s="4"/>
     </row>
-    <row r="223" spans="1:12" ht="30">
+    <row r="223" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E223" s="11">
         <v>2</v>
       </c>
@@ -6065,7 +6071,7 @@
       <c r="I223" s="14"/>
       <c r="L223" s="4"/>
     </row>
-    <row r="224" spans="1:12" ht="60">
+    <row r="224" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E224" s="11">
         <v>3</v>
       </c>
@@ -6080,7 +6086,7 @@
       </c>
       <c r="L224" s="4"/>
     </row>
-    <row r="225" spans="1:12" ht="60">
+    <row r="225" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E225" s="11">
         <v>4</v>
       </c>
@@ -6095,7 +6101,7 @@
       </c>
       <c r="L225" s="4"/>
     </row>
-    <row r="226" spans="1:12" ht="30">
+    <row r="226" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E226" s="11">
         <v>5</v>
       </c>
@@ -6113,7 +6119,7 @@
       </c>
       <c r="L226" s="4"/>
     </row>
-    <row r="227" spans="1:12" ht="45">
+    <row r="227" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E227" s="11">
         <v>6</v>
       </c>
@@ -6128,7 +6134,7 @@
       </c>
       <c r="L227" s="4"/>
     </row>
-    <row r="228" spans="1:12" ht="45">
+    <row r="228" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E228" s="11">
         <v>7</v>
       </c>
@@ -6145,10 +6151,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L229" s="4"/>
     </row>
-    <row r="230" spans="1:12" ht="60">
+    <row r="230" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>406</v>
       </c>
@@ -6166,7 +6172,7 @@
       </c>
       <c r="L230" s="4"/>
     </row>
-    <row r="231" spans="1:12" ht="30">
+    <row r="231" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E231" s="11">
         <v>1</v>
       </c>
@@ -6181,7 +6187,7 @@
       </c>
       <c r="L231" s="4"/>
     </row>
-    <row r="232" spans="1:12" ht="30">
+    <row r="232" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E232" s="11">
         <v>2</v>
       </c>
@@ -6197,7 +6203,7 @@
       <c r="I232" s="14"/>
       <c r="L232" s="4"/>
     </row>
-    <row r="233" spans="1:12" ht="60">
+    <row r="233" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E233" s="11">
         <v>3</v>
       </c>
@@ -6212,7 +6218,7 @@
       </c>
       <c r="L233" s="4"/>
     </row>
-    <row r="234" spans="1:12" ht="60">
+    <row r="234" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E234" s="11">
         <v>4</v>
       </c>
@@ -6227,7 +6233,7 @@
       </c>
       <c r="L234" s="4"/>
     </row>
-    <row r="235" spans="1:12" ht="30">
+    <row r="235" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E235" s="11">
         <v>5</v>
       </c>
@@ -6245,7 +6251,7 @@
       </c>
       <c r="L235" s="4"/>
     </row>
-    <row r="236" spans="1:12" ht="60">
+    <row r="236" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E236" s="11">
         <v>6</v>
       </c>
@@ -6260,7 +6266,7 @@
       </c>
       <c r="L236" s="4"/>
     </row>
-    <row r="237" spans="1:12" ht="45">
+    <row r="237" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E237" s="11">
         <v>7</v>
       </c>
@@ -6277,13 +6283,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L238" s="4"/>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L239" s="4"/>
     </row>
-    <row r="240" spans="1:12" ht="60">
+    <row r="240" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="11" t="s">
         <v>181</v>
       </c>
@@ -6301,7 +6307,7 @@
       </c>
       <c r="L240" s="4"/>
     </row>
-    <row r="241" spans="1:13" ht="30">
+    <row r="241" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E241" s="11">
         <v>1</v>
       </c>
@@ -6316,7 +6322,7 @@
       </c>
       <c r="L241" s="4"/>
     </row>
-    <row r="242" spans="1:13" ht="30">
+    <row r="242" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E242" s="11">
         <v>2</v>
       </c>
@@ -6332,7 +6338,7 @@
       <c r="I242" s="14"/>
       <c r="L242" s="4"/>
     </row>
-    <row r="243" spans="1:13" ht="60">
+    <row r="243" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E243" s="11">
         <v>3</v>
       </c>
@@ -6347,7 +6353,7 @@
       </c>
       <c r="L243" s="4"/>
     </row>
-    <row r="244" spans="1:13" ht="60">
+    <row r="244" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E244" s="11">
         <v>4</v>
       </c>
@@ -6362,7 +6368,7 @@
       </c>
       <c r="L244" s="4"/>
     </row>
-    <row r="245" spans="1:13" ht="30">
+    <row r="245" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E245" s="11">
         <v>5</v>
       </c>
@@ -6382,10 +6388,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="246" spans="1:13">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L246" s="4"/>
     </row>
-    <row r="247" spans="1:13" ht="60">
+    <row r="247" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" s="11" t="s">
         <v>182</v>
       </c>
@@ -6403,7 +6409,7 @@
       </c>
       <c r="L247" s="4"/>
     </row>
-    <row r="248" spans="1:13" ht="30">
+    <row r="248" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E248" s="11">
         <v>1</v>
       </c>
@@ -6418,7 +6424,7 @@
       </c>
       <c r="L248" s="4"/>
     </row>
-    <row r="249" spans="1:13" ht="30">
+    <row r="249" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E249" s="11">
         <v>2</v>
       </c>
@@ -6434,7 +6440,7 @@
       <c r="I249" s="14"/>
       <c r="L249" s="4"/>
     </row>
-    <row r="250" spans="1:13" ht="60">
+    <row r="250" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E250" s="11">
         <v>3</v>
       </c>
@@ -6449,7 +6455,7 @@
       </c>
       <c r="L250" s="4"/>
     </row>
-    <row r="251" spans="1:13" ht="60">
+    <row r="251" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E251" s="11">
         <v>4</v>
       </c>
@@ -6464,7 +6470,7 @@
       </c>
       <c r="L251" s="4"/>
     </row>
-    <row r="252" spans="1:13" ht="30">
+    <row r="252" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E252" s="11">
         <v>5</v>
       </c>
@@ -6479,7 +6485,7 @@
       </c>
       <c r="L252" s="4"/>
     </row>
-    <row r="253" spans="1:13" ht="60">
+    <row r="253" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="E253" s="11">
         <v>6</v>
       </c>
@@ -6502,10 +6508,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="254" spans="1:13">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L254" s="4"/>
     </row>
-    <row r="255" spans="1:13" ht="45">
+    <row r="255" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="11" t="s">
         <v>183</v>
       </c>
@@ -6520,7 +6526,7 @@
       </c>
       <c r="L255" s="4"/>
     </row>
-    <row r="256" spans="1:13" ht="30">
+    <row r="256" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E256" s="11">
         <v>1</v>
       </c>
@@ -6535,7 +6541,7 @@
       </c>
       <c r="L256" s="4"/>
     </row>
-    <row r="257" spans="1:12" ht="30">
+    <row r="257" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E257" s="11">
         <v>2</v>
       </c>
@@ -6550,7 +6556,7 @@
       </c>
       <c r="L257" s="4"/>
     </row>
-    <row r="258" spans="1:12" ht="60">
+    <row r="258" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E258" s="11">
         <v>3</v>
       </c>
@@ -6565,7 +6571,7 @@
       </c>
       <c r="L258" s="4"/>
     </row>
-    <row r="259" spans="1:12" ht="45">
+    <row r="259" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E259" s="11">
         <v>4</v>
       </c>
@@ -6580,7 +6586,7 @@
       </c>
       <c r="L259" s="4"/>
     </row>
-    <row r="260" spans="1:12" ht="45">
+    <row r="260" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E260" s="11">
         <v>5</v>
       </c>
@@ -6595,7 +6601,7 @@
       </c>
       <c r="L260" s="4"/>
     </row>
-    <row r="261" spans="1:12" ht="45">
+    <row r="261" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E261" s="11">
         <v>6</v>
       </c>
@@ -6612,10 +6618,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L262" s="4"/>
     </row>
-    <row r="263" spans="1:12" ht="45">
+    <row r="263" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="19" t="s">
         <v>184</v>
       </c>
@@ -6630,7 +6636,7 @@
       </c>
       <c r="L263" s="4"/>
     </row>
-    <row r="264" spans="1:12" ht="30">
+    <row r="264" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E264" s="11">
         <v>1</v>
       </c>
@@ -6645,7 +6651,7 @@
       </c>
       <c r="L264" s="4"/>
     </row>
-    <row r="265" spans="1:12" ht="30">
+    <row r="265" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E265" s="11">
         <v>2</v>
       </c>
@@ -6660,7 +6666,7 @@
       </c>
       <c r="L265" s="4"/>
     </row>
-    <row r="266" spans="1:12" ht="60">
+    <row r="266" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E266" s="11">
         <v>3</v>
       </c>
@@ -6675,7 +6681,7 @@
       </c>
       <c r="L266" s="4"/>
     </row>
-    <row r="267" spans="1:12" ht="45">
+    <row r="267" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E267" s="11">
         <v>4</v>
       </c>
@@ -6690,7 +6696,7 @@
       </c>
       <c r="L267" s="4"/>
     </row>
-    <row r="268" spans="1:12" ht="45">
+    <row r="268" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E268" s="11">
         <v>5</v>
       </c>
@@ -6705,7 +6711,7 @@
       </c>
       <c r="L268" s="4"/>
     </row>
-    <row r="269" spans="1:12" ht="45">
+    <row r="269" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E269" s="11">
         <v>6</v>
       </c>
@@ -6725,16 +6731,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L270" s="4"/>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L271" s="4"/>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L272" s="4"/>
     </row>
-    <row r="273" spans="1:12" ht="45">
+    <row r="273" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="11" t="s">
         <v>185</v>
       </c>
@@ -6749,7 +6755,7 @@
       </c>
       <c r="L273" s="4"/>
     </row>
-    <row r="274" spans="1:12" ht="30">
+    <row r="274" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E274" s="11">
         <v>1</v>
       </c>
@@ -6764,7 +6770,7 @@
       </c>
       <c r="L274" s="4"/>
     </row>
-    <row r="275" spans="1:12" ht="30">
+    <row r="275" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E275" s="11">
         <v>2</v>
       </c>
@@ -6779,7 +6785,7 @@
       </c>
       <c r="L275" s="4"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E276" s="11">
         <v>3</v>
       </c>
@@ -6791,7 +6797,7 @@
       </c>
       <c r="L276" s="4"/>
     </row>
-    <row r="277" spans="1:12" ht="30">
+    <row r="277" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E277" s="11">
         <v>4</v>
       </c>
@@ -6806,7 +6812,7 @@
       </c>
       <c r="L277" s="4"/>
     </row>
-    <row r="278" spans="1:12" ht="45">
+    <row r="278" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E278" s="11">
         <v>5</v>
       </c>
@@ -6821,7 +6827,7 @@
       </c>
       <c r="L278" s="4"/>
     </row>
-    <row r="279" spans="1:12" ht="45">
+    <row r="279" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E279" s="11">
         <v>6</v>
       </c>
@@ -6838,10 +6844,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L280" s="4"/>
     </row>
-    <row r="281" spans="1:12" ht="45">
+    <row r="281" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>186</v>
       </c>
@@ -6856,7 +6862,7 @@
       </c>
       <c r="L281" s="4"/>
     </row>
-    <row r="282" spans="1:12" ht="30">
+    <row r="282" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E282" s="11">
         <v>1</v>
       </c>
@@ -6871,7 +6877,7 @@
       </c>
       <c r="L282" s="4"/>
     </row>
-    <row r="283" spans="1:12" ht="30">
+    <row r="283" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E283" s="11">
         <v>2</v>
       </c>
@@ -6886,7 +6892,7 @@
       </c>
       <c r="L283" s="4"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E284" s="11">
         <v>3</v>
       </c>
@@ -6898,7 +6904,7 @@
       </c>
       <c r="L284" s="4"/>
     </row>
-    <row r="285" spans="1:12" ht="30">
+    <row r="285" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E285" s="11">
         <v>4</v>
       </c>
@@ -6913,7 +6919,7 @@
       </c>
       <c r="L285" s="4"/>
     </row>
-    <row r="286" spans="1:12" ht="45">
+    <row r="286" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E286" s="11">
         <v>5</v>
       </c>
@@ -6928,7 +6934,7 @@
       </c>
       <c r="L286" s="4"/>
     </row>
-    <row r="287" spans="1:12" ht="45">
+    <row r="287" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E287" s="11">
         <v>6</v>
       </c>
@@ -6945,10 +6951,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L288" s="4"/>
     </row>
-    <row r="289" spans="1:12" ht="45">
+    <row r="289" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A289" s="11" t="s">
         <v>407</v>
       </c>
@@ -6963,7 +6969,7 @@
       </c>
       <c r="L289" s="4"/>
     </row>
-    <row r="290" spans="1:12" ht="30">
+    <row r="290" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E290" s="11">
         <v>1</v>
       </c>
@@ -6978,7 +6984,7 @@
       </c>
       <c r="L290" s="4"/>
     </row>
-    <row r="291" spans="1:12" ht="30">
+    <row r="291" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E291" s="11">
         <v>2</v>
       </c>
@@ -6993,7 +6999,7 @@
       </c>
       <c r="L291" s="4"/>
     </row>
-    <row r="292" spans="1:12" ht="30">
+    <row r="292" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E292" s="11">
         <v>3</v>
       </c>
@@ -7008,7 +7014,7 @@
       </c>
       <c r="L292" s="4"/>
     </row>
-    <row r="293" spans="1:12" ht="150">
+    <row r="293" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E293" s="11">
         <v>4</v>
       </c>
@@ -7020,7 +7026,7 @@
       </c>
       <c r="L293" s="4"/>
     </row>
-    <row r="294" spans="1:12" ht="45">
+    <row r="294" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E294" s="11">
         <v>5</v>
       </c>
@@ -7034,10 +7040,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L295" s="4"/>
     </row>
-    <row r="296" spans="1:12" ht="45">
+    <row r="296" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="11" t="s">
         <v>408</v>
       </c>
@@ -7052,7 +7058,7 @@
       </c>
       <c r="L296" s="4"/>
     </row>
-    <row r="297" spans="1:12" ht="30">
+    <row r="297" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E297" s="11">
         <v>1</v>
       </c>
@@ -7067,7 +7073,7 @@
       </c>
       <c r="L297" s="4"/>
     </row>
-    <row r="298" spans="1:12" ht="30">
+    <row r="298" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E298" s="11">
         <v>2</v>
       </c>
@@ -7082,7 +7088,7 @@
       </c>
       <c r="L298" s="4"/>
     </row>
-    <row r="299" spans="1:12" ht="30">
+    <row r="299" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E299" s="11">
         <v>3</v>
       </c>
@@ -7097,7 +7103,7 @@
       </c>
       <c r="L299" s="4"/>
     </row>
-    <row r="300" spans="1:12" ht="150">
+    <row r="300" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E300" s="11">
         <v>4</v>
       </c>
@@ -7115,7 +7121,7 @@
       </c>
       <c r="L300" s="4"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E301" s="11">
         <v>5</v>
       </c>
@@ -7132,12 +7138,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C302"/>
       <c r="D302" s="15"/>
       <c r="L302" s="4"/>
     </row>
-    <row r="303" spans="1:12" ht="45">
+    <row r="303" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>187</v>
       </c>
@@ -7152,7 +7158,7 @@
       </c>
       <c r="L303" s="4"/>
     </row>
-    <row r="304" spans="1:12" ht="30">
+    <row r="304" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E304" s="11">
         <v>1</v>
       </c>
@@ -7167,7 +7173,7 @@
       </c>
       <c r="L304" s="4"/>
     </row>
-    <row r="305" spans="1:12" ht="30">
+    <row r="305" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E305" s="11">
         <v>2</v>
       </c>
@@ -7182,7 +7188,7 @@
       </c>
       <c r="L305" s="4"/>
     </row>
-    <row r="306" spans="1:12" ht="30">
+    <row r="306" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E306" s="11">
         <v>3</v>
       </c>
@@ -7197,7 +7203,7 @@
       </c>
       <c r="L306" s="4"/>
     </row>
-    <row r="307" spans="1:12" ht="150">
+    <row r="307" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E307" s="11">
         <v>4</v>
       </c>
@@ -7215,7 +7221,7 @@
       </c>
       <c r="L307" s="4"/>
     </row>
-    <row r="308" spans="1:12" ht="30">
+    <row r="308" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E308" s="11">
         <v>5</v>
       </c>
@@ -7232,15 +7238,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C309" s="21"/>
       <c r="D309" s="15"/>
       <c r="L309" s="4"/>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L310" s="4"/>
     </row>
-    <row r="311" spans="1:12" ht="45">
+    <row r="311" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>188</v>
       </c>
@@ -7255,7 +7261,7 @@
       </c>
       <c r="L311" s="4"/>
     </row>
-    <row r="312" spans="1:12" ht="30">
+    <row r="312" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E312" s="11">
         <v>1</v>
       </c>
@@ -7270,7 +7276,7 @@
       </c>
       <c r="L312" s="4"/>
     </row>
-    <row r="313" spans="1:12" ht="30">
+    <row r="313" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E313" s="11">
         <v>2</v>
       </c>
@@ -7285,7 +7291,7 @@
       </c>
       <c r="L313" s="4"/>
     </row>
-    <row r="314" spans="1:12" ht="30">
+    <row r="314" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E314" s="11">
         <v>3</v>
       </c>
@@ -7300,7 +7306,7 @@
       </c>
       <c r="L314" s="4"/>
     </row>
-    <row r="315" spans="1:12" ht="150">
+    <row r="315" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E315" s="11">
         <v>4</v>
       </c>
@@ -7312,7 +7318,7 @@
       </c>
       <c r="L315" s="4"/>
     </row>
-    <row r="316" spans="1:12" ht="45">
+    <row r="316" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E316" s="11">
         <v>5</v>
       </c>
@@ -7326,16 +7332,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L317" s="4"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L318" s="4"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L319" s="4"/>
     </row>
-    <row r="320" spans="1:12" ht="45">
+    <row r="320" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>197</v>
       </c>
@@ -7350,7 +7356,7 @@
       </c>
       <c r="L320" s="4"/>
     </row>
-    <row r="321" spans="1:12" ht="30">
+    <row r="321" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E321" s="11">
         <v>1</v>
       </c>
@@ -7365,7 +7371,7 @@
       </c>
       <c r="L321" s="4"/>
     </row>
-    <row r="322" spans="1:12" ht="30">
+    <row r="322" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E322" s="11">
         <v>2</v>
       </c>
@@ -7380,7 +7386,7 @@
       </c>
       <c r="L322" s="4"/>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E323" s="11">
         <v>3</v>
       </c>
@@ -7395,7 +7401,7 @@
       </c>
       <c r="L323" s="4"/>
     </row>
-    <row r="324" spans="1:12" ht="150">
+    <row r="324" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E324" s="11">
         <v>4</v>
       </c>
@@ -7413,7 +7419,7 @@
       </c>
       <c r="L324" s="4"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E325" s="11">
         <v>5</v>
       </c>
@@ -7430,12 +7436,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C326"/>
       <c r="D326" s="15"/>
       <c r="L326" s="4"/>
     </row>
-    <row r="327" spans="1:12" ht="45">
+    <row r="327" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>198</v>
       </c>
@@ -7450,7 +7456,7 @@
       </c>
       <c r="L327" s="4"/>
     </row>
-    <row r="328" spans="1:12" ht="30">
+    <row r="328" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E328" s="11">
         <v>1</v>
       </c>
@@ -7465,7 +7471,7 @@
       </c>
       <c r="L328" s="4"/>
     </row>
-    <row r="329" spans="1:12" ht="30">
+    <row r="329" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E329" s="11">
         <v>2</v>
       </c>
@@ -7480,7 +7486,7 @@
       </c>
       <c r="L329" s="4"/>
     </row>
-    <row r="330" spans="1:12" ht="30">
+    <row r="330" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E330" s="11">
         <v>3</v>
       </c>
@@ -7495,7 +7501,7 @@
       </c>
       <c r="L330" s="4"/>
     </row>
-    <row r="331" spans="1:12" ht="150">
+    <row r="331" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="E331" s="11">
         <v>4</v>
       </c>
@@ -7513,7 +7519,7 @@
       </c>
       <c r="L331" s="4"/>
     </row>
-    <row r="332" spans="1:12" ht="30">
+    <row r="332" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E332" s="11">
         <v>5</v>
       </c>
@@ -7530,10 +7536,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L333" s="4"/>
     </row>
-    <row r="336" spans="1:12" ht="45">
+    <row r="336" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>452</v>
       </c>
@@ -7550,7 +7556,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="30">
+    <row r="337" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E337" s="11">
         <v>1</v>
       </c>
@@ -7564,7 +7570,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="30">
+    <row r="338" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E338" s="11">
         <v>2</v>
       </c>
@@ -7578,7 +7584,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="30">
+    <row r="339" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E339" s="11">
         <v>3</v>
       </c>
@@ -7592,7 +7598,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="45">
+    <row r="340" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E340" s="11">
         <v>4</v>
       </c>
@@ -7603,7 +7609,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="45">
+    <row r="341" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E341" s="11">
         <v>5</v>
       </c>
@@ -7620,7 +7626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="45">
+    <row r="343" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>453</v>
       </c>
@@ -7637,7 +7643,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="30">
+    <row r="344" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E344" s="11">
         <v>1</v>
       </c>
@@ -7651,7 +7657,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="30">
+    <row r="345" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E345" s="11">
         <v>2</v>
       </c>
@@ -7665,7 +7671,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="30">
+    <row r="346" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E346" s="11">
         <v>3</v>
       </c>
@@ -7679,7 +7685,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="45">
+    <row r="347" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E347" s="11">
         <v>4</v>
       </c>
@@ -7690,7 +7696,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="30">
+    <row r="348" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E348" s="11">
         <v>5</v>
       </c>
@@ -7704,7 +7710,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="30">
+    <row r="349" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E349" s="11">
         <v>6</v>
       </c>
@@ -7718,7 +7724,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="75">
+    <row r="350" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E350" s="11">
         <v>7</v>
       </c>
@@ -7735,7 +7741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="45">
+    <row r="352" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>454</v>
       </c>
@@ -7752,7 +7758,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="353" spans="1:12" ht="30">
+    <row r="353" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E353" s="11">
         <v>1</v>
       </c>
@@ -7763,7 +7769,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="30">
+    <row r="354" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E354" s="11">
         <v>2</v>
       </c>
@@ -7774,7 +7780,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="30">
+    <row r="355" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E355" s="11">
         <v>3</v>
       </c>
@@ -7785,7 +7791,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="45">
+    <row r="356" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E356" s="11">
         <v>4</v>
       </c>
@@ -7793,7 +7799,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="30">
+    <row r="357" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E357" s="11">
         <v>5</v>
       </c>
@@ -7804,7 +7810,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="30">
+    <row r="358" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E358" s="11">
         <v>6</v>
       </c>
@@ -7815,7 +7821,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="45">
+    <row r="359" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E359" s="11">
         <v>7</v>
       </c>
@@ -7829,7 +7835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="361" spans="1:12" ht="45">
+    <row r="361" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>455</v>
       </c>
@@ -7846,7 +7852,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="362" spans="1:12" ht="30">
+    <row r="362" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E362" s="11">
         <v>1</v>
       </c>
@@ -7857,7 +7863,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="363" spans="1:12" ht="30">
+    <row r="363" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E363" s="11">
         <v>2</v>
       </c>
@@ -7868,7 +7874,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="364" spans="1:12" ht="30">
+    <row r="364" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E364" s="11">
         <v>3</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="365" spans="1:12" ht="45">
+    <row r="365" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E365" s="11">
         <v>4</v>
       </c>
@@ -7887,7 +7893,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="366" spans="1:12" ht="30">
+    <row r="366" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E366" s="11">
         <v>5</v>
       </c>
@@ -7898,7 +7904,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="367" spans="1:12" ht="30">
+    <row r="367" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E367" s="11">
         <v>6</v>
       </c>
@@ -7909,7 +7915,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="368" spans="1:12" ht="75">
+    <row r="368" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E368" s="11">
         <v>7</v>
       </c>
@@ -7923,7 +7929,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="370" spans="1:12" ht="45">
+    <row r="370" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>456</v>
       </c>
@@ -7940,7 +7946,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="371" spans="1:12" ht="30">
+    <row r="371" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E371" s="11">
         <v>1</v>
       </c>
@@ -7951,7 +7957,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="372" spans="1:12" ht="30">
+    <row r="372" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E372" s="11">
         <v>2</v>
       </c>
@@ -7962,7 +7968,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="373" spans="1:12" ht="30">
+    <row r="373" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E373" s="11">
         <v>3</v>
       </c>
@@ -7973,7 +7979,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E374" s="11">
         <v>4</v>
       </c>
@@ -7984,7 +7990,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="375" spans="1:12" ht="60">
+    <row r="375" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E375" s="11">
         <v>5</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="377" spans="1:12" ht="45">
+    <row r="377" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
         <v>457</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="378" spans="1:12" ht="30">
+    <row r="378" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E378" s="11">
         <v>1</v>
       </c>
@@ -8026,7 +8032,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="379" spans="1:12" ht="30">
+    <row r="379" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E379" s="11">
         <v>2</v>
       </c>
@@ -8037,7 +8043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="380" spans="1:12" ht="30">
+    <row r="380" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E380" s="11">
         <v>3</v>
       </c>
@@ -8048,7 +8054,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E381" s="11">
         <v>4</v>
       </c>
@@ -8059,7 +8065,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:12" ht="60">
+    <row r="382" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E382" s="11">
         <v>5</v>
       </c>
@@ -8070,7 +8076,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="383" spans="1:12" ht="30">
+    <row r="383" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E383" s="11">
         <v>6</v>
       </c>
@@ -8084,7 +8090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="45">
+    <row r="385" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>458</v>
       </c>
@@ -8101,7 +8107,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="30">
+    <row r="386" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E386" s="11">
         <v>1</v>
       </c>
@@ -8112,7 +8118,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="30">
+    <row r="387" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E387" s="11">
         <v>2</v>
       </c>
@@ -8123,7 +8129,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="45">
+    <row r="388" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E388" s="11">
         <v>3</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="30">
+    <row r="389" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E389" s="11">
         <v>4</v>
       </c>
@@ -8145,7 +8151,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="390" spans="1:13">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E390" s="11">
         <v>5</v>
       </c>
@@ -8159,7 +8165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="45">
+    <row r="392" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
         <v>459</v>
       </c>
@@ -8176,7 +8182,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="30">
+    <row r="393" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E393" s="11">
         <v>1</v>
       </c>
@@ -8187,7 +8193,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="30">
+    <row r="394" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E394" s="11">
         <v>2</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="45">
+    <row r="395" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E395" s="11">
         <v>3</v>
       </c>
@@ -8209,7 +8215,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="30">
+    <row r="396" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E396" s="11">
         <v>4</v>
       </c>
@@ -8220,7 +8226,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="30">
+    <row r="397" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E397" s="11">
         <v>5</v>
       </c>
@@ -8231,7 +8237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="45">
+    <row r="399" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
         <v>474</v>
       </c>
@@ -8259,7 +8265,7 @@
       </c>
       <c r="M399" s="23"/>
     </row>
-    <row r="400" spans="1:13" ht="30">
+    <row r="400" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F400" s="11" t="s">
         <v>22</v>
       </c>
@@ -8269,7 +8275,7 @@
       <c r="J400" s="11"/>
       <c r="L400" s="22"/>
     </row>
-    <row r="401" spans="1:12" ht="30">
+    <row r="401" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F401" s="11" t="s">
         <v>23</v>
       </c>
@@ -8279,7 +8285,7 @@
       <c r="J401" s="11"/>
       <c r="L401" s="22"/>
     </row>
-    <row r="402" spans="1:12" ht="30">
+    <row r="402" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F402" s="11" t="s">
         <v>464</v>
       </c>
@@ -8289,7 +8295,7 @@
       <c r="J402" s="11"/>
       <c r="L402" s="22"/>
     </row>
-    <row r="403" spans="1:12" ht="150">
+    <row r="403" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F403" s="11" t="s">
         <v>192</v>
       </c>
@@ -8299,15 +8305,15 @@
       <c r="J403" s="11"/>
       <c r="L403" s="22"/>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J404" s="11"/>
       <c r="L404" s="22"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J405" s="11"/>
       <c r="L405" s="22"/>
     </row>
-    <row r="406" spans="1:12" ht="45">
+    <row r="406" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
         <v>477</v>
       </c>
@@ -8334,7 +8340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:12" ht="30">
+    <row r="407" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F407" s="11" t="s">
         <v>22</v>
       </c>
@@ -8344,7 +8350,7 @@
       <c r="J407" s="11"/>
       <c r="L407" s="22"/>
     </row>
-    <row r="408" spans="1:12" ht="30">
+    <row r="408" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F408" s="11" t="s">
         <v>23</v>
       </c>
@@ -8354,7 +8360,7 @@
       <c r="J408" s="11"/>
       <c r="L408" s="22"/>
     </row>
-    <row r="409" spans="1:12" ht="30">
+    <row r="409" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F409" s="11" t="s">
         <v>468</v>
       </c>
@@ -8364,7 +8370,7 @@
       <c r="J409" s="11"/>
       <c r="L409" s="22"/>
     </row>
-    <row r="410" spans="1:12" ht="150">
+    <row r="410" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="F410" s="11" t="s">
         <v>192</v>
       </c>
@@ -8374,7 +8380,7 @@
       <c r="J410" s="11"/>
       <c r="L410" s="22"/>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F411" s="11" t="s">
         <v>195</v>
       </c>
@@ -8384,13 +8390,13 @@
       <c r="J411" s="11"/>
       <c r="L411" s="22"/>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C412" s="23"/>
       <c r="D412" s="24"/>
       <c r="J412" s="11"/>
       <c r="L412" s="22"/>
     </row>
-    <row r="413" spans="1:12" ht="45">
+    <row r="413" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
         <v>479</v>
       </c>
@@ -8417,7 +8423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="414" spans="1:12" ht="30">
+    <row r="414" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F414" s="11" t="s">
         <v>22</v>
       </c>
@@ -8427,7 +8433,7 @@
       <c r="J414" s="11"/>
       <c r="L414" s="22"/>
     </row>
-    <row r="415" spans="1:12" ht="30">
+    <row r="415" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F415" s="11" t="s">
         <v>23</v>
       </c>
@@ -8437,7 +8443,7 @@
       <c r="J415" s="11"/>
       <c r="L415" s="22"/>
     </row>
-    <row r="416" spans="1:12" ht="30">
+    <row r="416" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F416" s="11" t="s">
         <v>468</v>
       </c>
@@ -8447,7 +8453,7 @@
       <c r="J416" s="11"/>
       <c r="L416" s="22"/>
     </row>
-    <row r="417" spans="1:13" ht="150">
+    <row r="417" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="F417" s="11" t="s">
         <v>192</v>
       </c>
@@ -8457,7 +8463,7 @@
       <c r="J417" s="11"/>
       <c r="L417" s="22"/>
     </row>
-    <row r="418" spans="1:13" ht="30">
+    <row r="418" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F418" s="11" t="s">
         <v>199</v>
       </c>
@@ -8467,11 +8473,11 @@
       <c r="J418" s="11"/>
       <c r="L418" s="22"/>
     </row>
-    <row r="419" spans="1:13">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J419" s="11"/>
       <c r="L419" s="22"/>
     </row>
-    <row r="420" spans="1:13" ht="45">
+    <row r="420" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
         <v>481</v>
       </c>
@@ -8498,7 +8504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="45">
+    <row r="421" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F421" s="11" t="s">
         <v>472</v>
       </c>
@@ -8508,7 +8514,7 @@
       <c r="J421" s="11"/>
       <c r="L421" s="22"/>
     </row>
-    <row r="422" spans="1:13" ht="30">
+    <row r="422" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F422" s="24" t="s">
         <v>206</v>
       </c>
@@ -8518,7 +8524,7 @@
       <c r="J422" s="11"/>
       <c r="L422" s="22"/>
     </row>
-    <row r="423" spans="1:13" ht="30">
+    <row r="423" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F423" s="24" t="s">
         <v>208</v>
       </c>
@@ -8528,15 +8534,15 @@
       <c r="J423" s="11"/>
       <c r="L423" s="22"/>
     </row>
-    <row r="424" spans="1:13">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J424" s="11"/>
       <c r="L424" s="22"/>
     </row>
-    <row r="425" spans="1:13">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J425" s="11"/>
       <c r="L425" s="22"/>
     </row>
-    <row r="426" spans="1:13" ht="45">
+    <row r="426" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>482</v>
       </c>
@@ -8562,7 +8568,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="30">
+    <row r="427" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F427" s="11" t="s">
         <v>22</v>
       </c>
@@ -8572,7 +8578,7 @@
       <c r="J427" s="11"/>
       <c r="L427" s="22"/>
     </row>
-    <row r="428" spans="1:13" ht="30">
+    <row r="428" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F428" s="24" t="s">
         <v>212</v>
       </c>
@@ -8582,7 +8588,7 @@
       <c r="J428" s="11"/>
       <c r="L428" s="22"/>
     </row>
-    <row r="429" spans="1:13" ht="45">
+    <row r="429" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F429" s="24" t="s">
         <v>214</v>
       </c>
@@ -8592,7 +8598,7 @@
       <c r="J429" s="11"/>
       <c r="L429" s="22"/>
     </row>
-    <row r="430" spans="1:13" ht="195">
+    <row r="430" spans="1:13" ht="195" x14ac:dyDescent="0.25">
       <c r="F430" s="24" t="s">
         <v>216</v>
       </c>
@@ -8602,7 +8608,7 @@
       <c r="J430" s="11"/>
       <c r="L430" s="22"/>
     </row>
-    <row r="431" spans="1:13" ht="30">
+    <row r="431" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F431" s="24" t="s">
         <v>218</v>
       </c>
@@ -8612,7 +8618,7 @@
       <c r="J431" s="11"/>
       <c r="L431" s="22"/>
     </row>
-    <row r="432" spans="1:13" ht="30">
+    <row r="432" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F432" s="24" t="s">
         <v>220</v>
       </c>
@@ -8622,15 +8628,15 @@
       <c r="J432" s="11"/>
       <c r="L432" s="22"/>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J433" s="11"/>
       <c r="L433" s="22"/>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J434" s="11"/>
       <c r="L434" s="22"/>
     </row>
-    <row r="435" spans="1:12" ht="45">
+    <row r="435" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>483</v>
       </c>
@@ -8657,7 +8663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:12" ht="30">
+    <row r="436" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F436" s="11" t="s">
         <v>22</v>
       </c>
@@ -8667,7 +8673,7 @@
       <c r="J436" s="11"/>
       <c r="L436" s="22"/>
     </row>
-    <row r="437" spans="1:12" ht="30">
+    <row r="437" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F437" s="11" t="s">
         <v>212</v>
       </c>
@@ -8677,7 +8683,7 @@
       <c r="J437" s="11"/>
       <c r="L437" s="22"/>
     </row>
-    <row r="438" spans="1:12" ht="45">
+    <row r="438" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F438" s="11" t="s">
         <v>293</v>
       </c>
@@ -8687,7 +8693,7 @@
       <c r="J438" s="11"/>
       <c r="L438" s="22"/>
     </row>
-    <row r="439" spans="1:12" ht="225">
+    <row r="439" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="F439" s="11" t="s">
         <v>295</v>
       </c>
@@ -8697,7 +8703,7 @@
       <c r="J439" s="11"/>
       <c r="L439" s="22"/>
     </row>
-    <row r="440" spans="1:12" ht="30">
+    <row r="440" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F440" s="11" t="s">
         <v>297</v>
       </c>
@@ -8707,15 +8713,15 @@
       <c r="J440" s="11"/>
       <c r="L440" s="22"/>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J441" s="11"/>
       <c r="L441" s="22"/>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J442" s="11"/>
       <c r="L442" s="22"/>
     </row>
-    <row r="443" spans="1:12" ht="45">
+    <row r="443" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>678</v>
       </c>
@@ -8742,7 +8748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="444" spans="1:12" ht="30">
+    <row r="444" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F444" s="11" t="s">
         <v>22</v>
       </c>
@@ -8752,7 +8758,7 @@
       <c r="J444" s="11"/>
       <c r="L444" s="22"/>
     </row>
-    <row r="445" spans="1:12" ht="30">
+    <row r="445" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F445" s="11" t="s">
         <v>212</v>
       </c>
@@ -8762,7 +8768,7 @@
       <c r="J445" s="11"/>
       <c r="L445" s="22"/>
     </row>
-    <row r="446" spans="1:12" ht="30">
+    <row r="446" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F446" s="11" t="s">
         <v>300</v>
       </c>
@@ -8772,23 +8778,23 @@
       <c r="J446" s="11"/>
       <c r="L446" s="22"/>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J447" s="11"/>
       <c r="L447" s="22"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J448" s="11"/>
       <c r="L448" s="22"/>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J449" s="11"/>
       <c r="L449" s="22"/>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J450" s="11"/>
       <c r="L450" s="22"/>
     </row>
-    <row r="451" spans="1:12" ht="45">
+    <row r="451" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
         <v>484</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="452" spans="1:12" ht="30">
+    <row r="452" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F452" s="11" t="s">
         <v>22</v>
       </c>
@@ -8822,7 +8828,7 @@
       <c r="J452" s="11"/>
       <c r="L452" s="22"/>
     </row>
-    <row r="453" spans="1:12" ht="30">
+    <row r="453" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F453" s="11" t="s">
         <v>212</v>
       </c>
@@ -8832,7 +8838,7 @@
       <c r="J453" s="11"/>
       <c r="L453" s="22"/>
     </row>
-    <row r="454" spans="1:12" ht="45">
+    <row r="454" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F454" s="11" t="s">
         <v>293</v>
       </c>
@@ -8842,7 +8848,7 @@
       <c r="J454" s="11"/>
       <c r="L454" s="22"/>
     </row>
-    <row r="455" spans="1:12" ht="30">
+    <row r="455" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F455" s="11" t="s">
         <v>300</v>
       </c>
@@ -8852,7 +8858,7 @@
       <c r="J455" s="11"/>
       <c r="L455" s="22"/>
     </row>
-    <row r="456" spans="1:12" ht="30">
+    <row r="456" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F456" s="11" t="s">
         <v>301</v>
       </c>
@@ -8862,15 +8868,15 @@
       <c r="J456" s="11"/>
       <c r="L456" s="22"/>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J457" s="11"/>
       <c r="L457" s="22"/>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J458" s="11"/>
       <c r="L458" s="22"/>
     </row>
-    <row r="459" spans="1:12" ht="45">
+    <row r="459" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>486</v>
       </c>
@@ -8894,7 +8900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="460" spans="1:12" ht="30">
+    <row r="460" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F460" s="11" t="s">
         <v>22</v>
       </c>
@@ -8904,7 +8910,7 @@
       <c r="J460" s="11"/>
       <c r="L460" s="22"/>
     </row>
-    <row r="461" spans="1:12" ht="30">
+    <row r="461" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F461" s="11" t="s">
         <v>212</v>
       </c>
@@ -8914,7 +8920,7 @@
       <c r="J461" s="11"/>
       <c r="L461" s="22"/>
     </row>
-    <row r="462" spans="1:12" ht="45">
+    <row r="462" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F462" s="11" t="s">
         <v>293</v>
       </c>
@@ -8924,7 +8930,7 @@
       <c r="J462" s="11"/>
       <c r="L462" s="22"/>
     </row>
-    <row r="463" spans="1:12" ht="30">
+    <row r="463" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F463" s="11" t="s">
         <v>300</v>
       </c>
@@ -8934,7 +8940,7 @@
       <c r="J463" s="11"/>
       <c r="L463" s="22"/>
     </row>
-    <row r="464" spans="1:12" ht="30">
+    <row r="464" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F464" s="11" t="s">
         <v>304</v>
       </c>
@@ -8944,11 +8950,11 @@
       <c r="J464" s="11"/>
       <c r="L464" s="22"/>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J465" s="11"/>
       <c r="L465" s="22"/>
     </row>
-    <row r="466" spans="1:12" ht="45">
+    <row r="466" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>487</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="467" spans="1:12" ht="30">
+    <row r="467" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F467" s="11" t="s">
         <v>22</v>
       </c>
@@ -8982,7 +8988,7 @@
       <c r="J467" s="11"/>
       <c r="L467" s="22"/>
     </row>
-    <row r="468" spans="1:12" ht="30">
+    <row r="468" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F468" s="11" t="s">
         <v>212</v>
       </c>
@@ -8992,7 +8998,7 @@
       <c r="J468" s="11"/>
       <c r="L468" s="22"/>
     </row>
-    <row r="469" spans="1:12" ht="45">
+    <row r="469" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F469" s="11" t="s">
         <v>293</v>
       </c>
@@ -9002,7 +9008,7 @@
       <c r="J469" s="11"/>
       <c r="L469" s="22"/>
     </row>
-    <row r="470" spans="1:12" ht="30">
+    <row r="470" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F470" s="11" t="s">
         <v>307</v>
       </c>
@@ -9012,7 +9018,7 @@
       <c r="J470" s="11"/>
       <c r="L470" s="22"/>
     </row>
-    <row r="471" spans="1:12" ht="30">
+    <row r="471" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F471" s="11" t="s">
         <v>308</v>
       </c>
@@ -9022,23 +9028,23 @@
       <c r="J471" s="11"/>
       <c r="L471" s="22"/>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F472" s="5"/>
       <c r="G472" s="5"/>
       <c r="J472" s="11"/>
       <c r="L472" s="22"/>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F473" s="5"/>
       <c r="G473" s="5"/>
       <c r="J473" s="11"/>
       <c r="L473" s="22"/>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J474" s="11"/>
       <c r="L474" s="22"/>
     </row>
-    <row r="475" spans="1:12" ht="45">
+    <row r="475" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
         <v>488</v>
       </c>
@@ -9064,7 +9070,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="476" spans="1:12" ht="30">
+    <row r="476" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F476" s="11" t="s">
         <v>22</v>
       </c>
@@ -9074,7 +9080,7 @@
       <c r="J476" s="11"/>
       <c r="L476" s="22"/>
     </row>
-    <row r="477" spans="1:12" ht="30">
+    <row r="477" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F477" s="11" t="s">
         <v>212</v>
       </c>
@@ -9084,7 +9090,7 @@
       <c r="J477" s="11"/>
       <c r="L477" s="22"/>
     </row>
-    <row r="478" spans="1:12" ht="45">
+    <row r="478" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F478" s="11" t="s">
         <v>311</v>
       </c>
@@ -9094,7 +9100,7 @@
       <c r="J478" s="11"/>
       <c r="L478" s="22"/>
     </row>
-    <row r="479" spans="1:12" ht="210">
+    <row r="479" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="F479" s="11" t="s">
         <v>313</v>
       </c>
@@ -9104,11 +9110,11 @@
       <c r="J479" s="11"/>
       <c r="L479" s="22"/>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J480" s="11"/>
       <c r="L480" s="22"/>
     </row>
-    <row r="481" spans="1:12" ht="45">
+    <row r="481" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>489</v>
       </c>
@@ -9132,7 +9138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="30">
+    <row r="482" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F482" s="11" t="s">
         <v>22</v>
       </c>
@@ -9142,7 +9148,7 @@
       <c r="J482" s="11"/>
       <c r="L482" s="22"/>
     </row>
-    <row r="483" spans="1:12" ht="30">
+    <row r="483" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F483" s="24" t="s">
         <v>212</v>
       </c>
@@ -9152,7 +9158,7 @@
       <c r="J483" s="11"/>
       <c r="L483" s="22"/>
     </row>
-    <row r="484" spans="1:12" ht="45">
+    <row r="484" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F484" s="24" t="s">
         <v>316</v>
       </c>
@@ -9162,7 +9168,7 @@
       <c r="J484" s="11"/>
       <c r="L484" s="22"/>
     </row>
-    <row r="485" spans="1:12" ht="30">
+    <row r="485" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F485" s="24" t="s">
         <v>307</v>
       </c>
@@ -9172,7 +9178,7 @@
       <c r="J485" s="11"/>
       <c r="L485" s="22"/>
     </row>
-    <row r="486" spans="1:12" ht="30">
+    <row r="486" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F486" s="24" t="s">
         <v>301</v>
       </c>
@@ -9182,15 +9188,15 @@
       <c r="J486" s="11"/>
       <c r="L486" s="22"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J487" s="11"/>
       <c r="L487" s="22"/>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J488" s="11"/>
       <c r="L488" s="22"/>
     </row>
-    <row r="489" spans="1:12" ht="45">
+    <row r="489" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
         <v>493</v>
       </c>
@@ -9214,7 +9220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="30">
+    <row r="490" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F490" s="11" t="s">
         <v>22</v>
       </c>
@@ -9224,7 +9230,7 @@
       <c r="J490" s="11"/>
       <c r="L490" s="22"/>
     </row>
-    <row r="491" spans="1:12" ht="30">
+    <row r="491" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F491" s="24" t="s">
         <v>212</v>
       </c>
@@ -9234,7 +9240,7 @@
       <c r="J491" s="11"/>
       <c r="L491" s="22"/>
     </row>
-    <row r="492" spans="1:12" ht="45">
+    <row r="492" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F492" s="24" t="s">
         <v>319</v>
       </c>
@@ -9244,7 +9250,7 @@
       <c r="J492" s="11"/>
       <c r="L492" s="22"/>
     </row>
-    <row r="493" spans="1:12" ht="30">
+    <row r="493" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F493" s="24" t="s">
         <v>307</v>
       </c>
@@ -9254,7 +9260,7 @@
       <c r="J493" s="11"/>
       <c r="L493" s="22"/>
     </row>
-    <row r="494" spans="1:12" ht="30">
+    <row r="494" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F494" s="24" t="s">
         <v>308</v>
       </c>
@@ -9264,19 +9270,19 @@
       <c r="J494" s="11"/>
       <c r="L494" s="22"/>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J495" s="11"/>
       <c r="L495" s="22"/>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J496" s="11"/>
       <c r="L496" s="22"/>
     </row>
-    <row r="497" spans="1:13">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J497" s="11"/>
       <c r="L497" s="22"/>
     </row>
-    <row r="498" spans="1:13" ht="45">
+    <row r="498" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
         <v>495</v>
       </c>
@@ -9300,7 +9306,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="30">
+    <row r="499" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F499" s="11" t="s">
         <v>22</v>
       </c>
@@ -9310,7 +9316,7 @@
       <c r="J499" s="11"/>
       <c r="L499" s="22"/>
     </row>
-    <row r="500" spans="1:13" ht="30">
+    <row r="500" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F500" s="24" t="s">
         <v>212</v>
       </c>
@@ -9320,7 +9326,7 @@
       <c r="J500" s="11"/>
       <c r="L500" s="22"/>
     </row>
-    <row r="501" spans="1:13" ht="45">
+    <row r="501" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F501" s="24" t="s">
         <v>319</v>
       </c>
@@ -9330,7 +9336,7 @@
       <c r="J501" s="11"/>
       <c r="L501" s="22"/>
     </row>
-    <row r="502" spans="1:13" ht="30">
+    <row r="502" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F502" s="24" t="s">
         <v>307</v>
       </c>
@@ -9340,7 +9346,7 @@
       <c r="J502" s="11"/>
       <c r="L502" s="22"/>
     </row>
-    <row r="503" spans="1:13" ht="30">
+    <row r="503" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F503" s="24" t="s">
         <v>304</v>
       </c>
@@ -9350,15 +9356,15 @@
       <c r="J503" s="11"/>
       <c r="L503" s="22"/>
     </row>
-    <row r="504" spans="1:13">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J504" s="11"/>
       <c r="L504" s="22"/>
     </row>
-    <row r="505" spans="1:13">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J505" s="11"/>
       <c r="L505" s="22"/>
     </row>
-    <row r="506" spans="1:13" ht="45">
+    <row r="506" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A506" s="11" t="s">
         <v>497</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="30">
+    <row r="507" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F507" s="11" t="s">
         <v>22</v>
       </c>
@@ -9395,7 +9401,7 @@
       <c r="J507" s="11"/>
       <c r="L507" s="22"/>
     </row>
-    <row r="508" spans="1:13" ht="30">
+    <row r="508" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F508" s="24" t="s">
         <v>212</v>
       </c>
@@ -9405,7 +9411,7 @@
       <c r="J508" s="11"/>
       <c r="L508" s="22"/>
     </row>
-    <row r="509" spans="1:13" ht="45">
+    <row r="509" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F509" s="24" t="s">
         <v>322</v>
       </c>
@@ -9415,7 +9421,7 @@
       <c r="J509" s="11"/>
       <c r="L509" s="22"/>
     </row>
-    <row r="510" spans="1:13" ht="45">
+    <row r="510" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F510" s="24" t="s">
         <v>492</v>
       </c>
@@ -9425,17 +9431,17 @@
       <c r="J510" s="11"/>
       <c r="L510" s="22"/>
     </row>
-    <row r="511" spans="1:13">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F511" s="24"/>
       <c r="G511" s="24"/>
       <c r="J511" s="11"/>
       <c r="L511" s="22"/>
     </row>
-    <row r="512" spans="1:13">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J512" s="11"/>
       <c r="L512" s="22"/>
     </row>
-    <row r="513" spans="1:12" ht="45">
+    <row r="513" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A513" s="11" t="s">
         <v>501</v>
       </c>
@@ -9459,7 +9465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="514" spans="1:12" ht="30">
+    <row r="514" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F514" s="11" t="s">
         <v>22</v>
       </c>
@@ -9469,7 +9475,7 @@
       <c r="J514" s="11"/>
       <c r="L514" s="22"/>
     </row>
-    <row r="515" spans="1:12" ht="30">
+    <row r="515" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F515" s="24" t="s">
         <v>212</v>
       </c>
@@ -9479,7 +9485,7 @@
       <c r="J515" s="11"/>
       <c r="L515" s="22"/>
     </row>
-    <row r="516" spans="1:12" ht="30">
+    <row r="516" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F516" s="24" t="s">
         <v>325</v>
       </c>
@@ -9490,7 +9496,7 @@
       <c r="K516" s="22"/>
       <c r="L516" s="22"/>
     </row>
-    <row r="517" spans="1:12" ht="135">
+    <row r="517" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="F517" s="24" t="s">
         <v>494</v>
       </c>
@@ -9501,17 +9507,17 @@
       <c r="K517" s="22"/>
       <c r="L517" s="22"/>
     </row>
-    <row r="518" spans="1:12">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J518" s="11"/>
       <c r="K518" s="22"/>
       <c r="L518" s="22"/>
     </row>
-    <row r="519" spans="1:12">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J519" s="11"/>
       <c r="K519" s="22"/>
       <c r="L519" s="22"/>
     </row>
-    <row r="520" spans="1:12" ht="45">
+    <row r="520" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A520" s="11" t="s">
         <v>495</v>
       </c>
@@ -9535,7 +9541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="521" spans="1:12" ht="30">
+    <row r="521" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F521" s="24" t="s">
         <v>212</v>
       </c>
@@ -9546,7 +9552,7 @@
       <c r="K521" s="22"/>
       <c r="L521" s="22"/>
     </row>
-    <row r="522" spans="1:12" ht="45">
+    <row r="522" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F522" s="24" t="s">
         <v>330</v>
       </c>
@@ -9557,7 +9563,7 @@
       <c r="K522" s="22"/>
       <c r="L522" s="22"/>
     </row>
-    <row r="523" spans="1:12" ht="30">
+    <row r="523" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F523" s="24" t="s">
         <v>496</v>
       </c>
@@ -9568,19 +9574,19 @@
       <c r="K523" s="22"/>
       <c r="L523" s="22"/>
     </row>
-    <row r="524" spans="1:12">
+    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F524" s="23"/>
       <c r="G524" s="23"/>
       <c r="J524" s="11"/>
       <c r="K524" s="22"/>
       <c r="L524" s="22"/>
     </row>
-    <row r="525" spans="1:12">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J525" s="11"/>
       <c r="K525" s="22"/>
       <c r="L525" s="22"/>
     </row>
-    <row r="526" spans="1:12" ht="45">
+    <row r="526" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A526" s="11" t="s">
         <v>509</v>
       </c>
@@ -9604,7 +9610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="527" spans="1:12" ht="30">
+    <row r="527" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F527" s="24" t="s">
         <v>212</v>
       </c>
@@ -9615,7 +9621,7 @@
       <c r="K527" s="22"/>
       <c r="L527" s="22"/>
     </row>
-    <row r="528" spans="1:12" ht="60">
+    <row r="528" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="F528" s="24" t="s">
         <v>499</v>
       </c>
@@ -9626,19 +9632,19 @@
       <c r="K528" s="22"/>
       <c r="L528" s="22"/>
     </row>
-    <row r="529" spans="1:13">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F529" s="24"/>
       <c r="G529" s="24"/>
       <c r="J529" s="11"/>
       <c r="K529" s="22"/>
       <c r="L529" s="22"/>
     </row>
-    <row r="530" spans="1:13">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J530" s="11"/>
       <c r="K530" s="22"/>
       <c r="L530" s="22"/>
     </row>
-    <row r="531" spans="1:13" s="26" customFormat="1" ht="45">
+    <row r="531" spans="1:13" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A531" s="19" t="s">
         <v>519</v>
       </c>
@@ -9667,7 +9673,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="30">
+    <row r="532" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F532" s="24" t="s">
         <v>212</v>
       </c>
@@ -9678,7 +9684,7 @@
       <c r="K532" s="22"/>
       <c r="L532" s="22"/>
     </row>
-    <row r="533" spans="1:13" ht="45">
+    <row r="533" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F533" s="24" t="s">
         <v>504</v>
       </c>
@@ -9687,7 +9693,7 @@
       <c r="K533" s="22"/>
       <c r="L533" s="22"/>
     </row>
-    <row r="534" spans="1:13" ht="60">
+    <row r="534" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="F534" s="11" t="s">
         <v>505</v>
       </c>
@@ -9698,7 +9704,7 @@
       <c r="K534" s="22"/>
       <c r="L534" s="22"/>
     </row>
-    <row r="535" spans="1:13">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F535" s="11" t="s">
         <v>507</v>
       </c>
@@ -9709,17 +9715,17 @@
       <c r="K535" s="22"/>
       <c r="L535" s="22"/>
     </row>
-    <row r="536" spans="1:13">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J536" s="11"/>
       <c r="K536" s="22"/>
       <c r="L536" s="22"/>
     </row>
-    <row r="537" spans="1:13">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J537" s="11"/>
       <c r="K537" s="22"/>
       <c r="L537" s="22"/>
     </row>
-    <row r="538" spans="1:13" ht="45">
+    <row r="538" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A538" s="11" t="s">
         <v>530</v>
       </c>
@@ -9743,7 +9749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="30">
+    <row r="539" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F539" s="24" t="s">
         <v>212</v>
       </c>
@@ -9754,7 +9760,7 @@
       <c r="K539" s="22"/>
       <c r="L539" s="22"/>
     </row>
-    <row r="540" spans="1:13" ht="45">
+    <row r="540" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F540" s="24" t="s">
         <v>511</v>
       </c>
@@ -9765,7 +9771,7 @@
       <c r="K540" s="22"/>
       <c r="L540" s="22"/>
     </row>
-    <row r="541" spans="1:13" ht="45">
+    <row r="541" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F541" s="11" t="s">
         <v>513</v>
       </c>
@@ -9776,7 +9782,7 @@
       <c r="K541" s="22"/>
       <c r="L541" s="22"/>
     </row>
-    <row r="542" spans="1:13" ht="30">
+    <row r="542" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F542" s="11" t="s">
         <v>515</v>
       </c>
@@ -9787,7 +9793,7 @@
       <c r="K542" s="22"/>
       <c r="L542" s="22"/>
     </row>
-    <row r="543" spans="1:13" ht="30">
+    <row r="543" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F543" s="11" t="s">
         <v>517</v>
       </c>
@@ -9798,12 +9804,12 @@
       <c r="K543" s="22"/>
       <c r="L543" s="22"/>
     </row>
-    <row r="544" spans="1:13">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J544" s="11"/>
       <c r="K544" s="22"/>
       <c r="L544" s="22"/>
     </row>
-    <row r="545" spans="1:13" ht="45">
+    <row r="545" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A545" s="11" t="s">
         <v>540</v>
       </c>
@@ -9830,7 +9836,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="30">
+    <row r="546" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F546" s="24" t="s">
         <v>212</v>
       </c>
@@ -9841,7 +9847,7 @@
       <c r="K546" s="22"/>
       <c r="L546" s="22"/>
     </row>
-    <row r="547" spans="1:13" ht="45">
+    <row r="547" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F547" s="24" t="s">
         <v>511</v>
       </c>
@@ -9852,7 +9858,7 @@
       <c r="K547" s="22"/>
       <c r="L547" s="22"/>
     </row>
-    <row r="548" spans="1:13" ht="30">
+    <row r="548" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F548" s="11" t="s">
         <v>515</v>
       </c>
@@ -9863,7 +9869,7 @@
       <c r="K548" s="22"/>
       <c r="L548" s="22"/>
     </row>
-    <row r="549" spans="1:13" ht="30">
+    <row r="549" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F549" s="11" t="s">
         <v>524</v>
       </c>
@@ -9874,7 +9880,7 @@
       <c r="K549" s="22"/>
       <c r="L549" s="22"/>
     </row>
-    <row r="550" spans="1:13" ht="30">
+    <row r="550" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F550" s="11" t="s">
         <v>526</v>
       </c>
@@ -9885,7 +9891,7 @@
       <c r="K550" s="22"/>
       <c r="L550" s="22"/>
     </row>
-    <row r="551" spans="1:13" ht="30">
+    <row r="551" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F551" s="11" t="s">
         <v>528</v>
       </c>
@@ -9896,17 +9902,17 @@
       <c r="K551" s="22"/>
       <c r="L551" s="22"/>
     </row>
-    <row r="552" spans="1:13">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J552" s="11"/>
       <c r="K552" s="22"/>
       <c r="L552" s="22"/>
     </row>
-    <row r="553" spans="1:13">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J553" s="11"/>
       <c r="K553" s="22"/>
       <c r="L553" s="22"/>
     </row>
-    <row r="554" spans="1:13" ht="45">
+    <row r="554" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A554" s="11" t="s">
         <v>679</v>
       </c>
@@ -9930,7 +9936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="30">
+    <row r="555" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F555" s="24" t="s">
         <v>212</v>
       </c>
@@ -9941,7 +9947,7 @@
       <c r="K555" s="22"/>
       <c r="L555" s="22"/>
     </row>
-    <row r="556" spans="1:13" ht="45">
+    <row r="556" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F556" s="24" t="s">
         <v>511</v>
       </c>
@@ -9952,7 +9958,7 @@
       <c r="K556" s="22"/>
       <c r="L556" s="22"/>
     </row>
-    <row r="557" spans="1:13" ht="30">
+    <row r="557" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F557" s="11" t="s">
         <v>515</v>
       </c>
@@ -9963,7 +9969,7 @@
       <c r="K557" s="22"/>
       <c r="L557" s="22"/>
     </row>
-    <row r="558" spans="1:13" ht="30">
+    <row r="558" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F558" s="11" t="s">
         <v>532</v>
       </c>
@@ -9974,7 +9980,7 @@
       <c r="K558" s="22"/>
       <c r="L558" s="22"/>
     </row>
-    <row r="559" spans="1:13" ht="30">
+    <row r="559" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F559" s="11" t="s">
         <v>534</v>
       </c>
@@ -9985,7 +9991,7 @@
       <c r="K559" s="22"/>
       <c r="L559" s="22"/>
     </row>
-    <row r="560" spans="1:13" ht="30">
+    <row r="560" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F560" s="11" t="s">
         <v>536</v>
       </c>
@@ -9996,7 +10002,7 @@
       <c r="K560" s="22"/>
       <c r="L560" s="22"/>
     </row>
-    <row r="561" spans="1:12" ht="45">
+    <row r="561" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F561" s="11" t="s">
         <v>538</v>
       </c>
@@ -10007,27 +10013,27 @@
       <c r="K561" s="22"/>
       <c r="L561" s="22"/>
     </row>
-    <row r="562" spans="1:12">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J562" s="11"/>
       <c r="K562" s="22"/>
       <c r="L562" s="22"/>
     </row>
-    <row r="563" spans="1:12">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J563" s="11"/>
       <c r="K563" s="22"/>
       <c r="L563" s="22"/>
     </row>
-    <row r="564" spans="1:12">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J564" s="11"/>
       <c r="K564" s="22"/>
       <c r="L564" s="22"/>
     </row>
-    <row r="565" spans="1:12">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J565" s="11"/>
       <c r="K565" s="22"/>
       <c r="L565" s="22"/>
     </row>
-    <row r="566" spans="1:12" ht="45">
+    <row r="566" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A566" s="11" t="s">
         <v>545</v>
       </c>
@@ -10051,7 +10057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="30">
+    <row r="567" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F567" s="24" t="s">
         <v>212</v>
       </c>
@@ -10062,7 +10068,7 @@
       <c r="K567" s="22"/>
       <c r="L567" s="22"/>
     </row>
-    <row r="568" spans="1:12" ht="45">
+    <row r="568" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F568" s="24" t="s">
         <v>511</v>
       </c>
@@ -10073,7 +10079,7 @@
       <c r="K568" s="22"/>
       <c r="L568" s="22"/>
     </row>
-    <row r="569" spans="1:12" ht="30">
+    <row r="569" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F569" s="11" t="s">
         <v>515</v>
       </c>
@@ -10084,7 +10090,7 @@
       <c r="K569" s="22"/>
       <c r="L569" s="22"/>
     </row>
-    <row r="570" spans="1:12" ht="30">
+    <row r="570" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F570" s="11" t="s">
         <v>543</v>
       </c>
@@ -10095,37 +10101,37 @@
       <c r="K570" s="22"/>
       <c r="L570" s="22"/>
     </row>
-    <row r="571" spans="1:12">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J571" s="11"/>
       <c r="K571" s="22"/>
       <c r="L571" s="22"/>
     </row>
-    <row r="572" spans="1:12">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J572" s="11"/>
       <c r="K572" s="22"/>
       <c r="L572" s="22"/>
     </row>
-    <row r="573" spans="1:12">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J573" s="11"/>
       <c r="K573" s="22"/>
       <c r="L573" s="22"/>
     </row>
-    <row r="574" spans="1:12">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J574" s="11"/>
       <c r="K574" s="22"/>
       <c r="L574" s="22"/>
     </row>
-    <row r="575" spans="1:12">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J575" s="11"/>
       <c r="K575" s="22"/>
       <c r="L575" s="22"/>
     </row>
-    <row r="576" spans="1:12">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J576" s="11"/>
       <c r="K576" s="22"/>
       <c r="L576" s="22"/>
     </row>
-    <row r="577" spans="1:12" ht="45">
+    <row r="577" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A577" s="11" t="s">
         <v>549</v>
       </c>
@@ -10149,7 +10155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="578" spans="1:12" ht="30">
+    <row r="578" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F578" s="24" t="s">
         <v>212</v>
       </c>
@@ -10160,7 +10166,7 @@
       <c r="K578" s="22"/>
       <c r="L578" s="22"/>
     </row>
-    <row r="579" spans="1:12" ht="45">
+    <row r="579" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F579" s="24" t="s">
         <v>511</v>
       </c>
@@ -10171,7 +10177,7 @@
       <c r="K579" s="22"/>
       <c r="L579" s="22"/>
     </row>
-    <row r="580" spans="1:12" ht="30">
+    <row r="580" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F580" s="11" t="s">
         <v>515</v>
       </c>
@@ -10182,7 +10188,7 @@
       <c r="K580" s="22"/>
       <c r="L580" s="22"/>
     </row>
-    <row r="581" spans="1:12" ht="30">
+    <row r="581" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F581" s="11" t="s">
         <v>543</v>
       </c>
@@ -10193,7 +10199,7 @@
       <c r="K581" s="22"/>
       <c r="L581" s="22"/>
     </row>
-    <row r="582" spans="1:12" ht="30">
+    <row r="582" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F582" s="11" t="s">
         <v>547</v>
       </c>
@@ -10204,17 +10210,17 @@
       <c r="K582" s="22"/>
       <c r="L582" s="22"/>
     </row>
-    <row r="583" spans="1:12">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J583" s="11"/>
       <c r="K583" s="22"/>
       <c r="L583" s="22"/>
     </row>
-    <row r="584" spans="1:12">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J584" s="11"/>
       <c r="K584" s="22"/>
       <c r="L584" s="22"/>
     </row>
-    <row r="585" spans="1:12" ht="45">
+    <row r="585" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A585" s="11" t="s">
         <v>555</v>
       </c>
@@ -10241,7 +10247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="586" spans="1:12" ht="30">
+    <row r="586" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F586" s="24" t="s">
         <v>212</v>
       </c>
@@ -10252,7 +10258,7 @@
       <c r="K586" s="22"/>
       <c r="L586" s="22"/>
     </row>
-    <row r="587" spans="1:12" ht="45">
+    <row r="587" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F587" s="24" t="s">
         <v>551</v>
       </c>
@@ -10263,7 +10269,7 @@
       <c r="K587" s="22"/>
       <c r="L587" s="22"/>
     </row>
-    <row r="588" spans="1:12" ht="120">
+    <row r="588" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F588" s="11" t="s">
         <v>553</v>
       </c>
@@ -10274,17 +10280,17 @@
       <c r="K588" s="22"/>
       <c r="L588" s="22"/>
     </row>
-    <row r="589" spans="1:12">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J589" s="11"/>
       <c r="K589" s="22"/>
       <c r="L589" s="22"/>
     </row>
-    <row r="590" spans="1:12">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J590" s="11"/>
       <c r="K590" s="22"/>
       <c r="L590" s="22"/>
     </row>
-    <row r="591" spans="1:12" ht="45">
+    <row r="591" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A591" s="11" t="s">
         <v>564</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="592" spans="1:12" ht="30">
+    <row r="592" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F592" s="24" t="s">
         <v>212</v>
       </c>
@@ -10322,7 +10328,7 @@
       <c r="K592" s="22"/>
       <c r="L592" s="22"/>
     </row>
-    <row r="593" spans="1:12" ht="45">
+    <row r="593" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F593" s="24" t="s">
         <v>551</v>
       </c>
@@ -10333,7 +10339,7 @@
       <c r="K593" s="22"/>
       <c r="L593" s="22"/>
     </row>
-    <row r="594" spans="1:12" ht="120">
+    <row r="594" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F594" s="11" t="s">
         <v>557</v>
       </c>
@@ -10344,7 +10350,7 @@
       <c r="K594" s="22"/>
       <c r="L594" s="22"/>
     </row>
-    <row r="595" spans="1:12" ht="30">
+    <row r="595" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F595" s="11" t="s">
         <v>558</v>
       </c>
@@ -10355,7 +10361,7 @@
       <c r="K595" s="22"/>
       <c r="L595" s="22"/>
     </row>
-    <row r="596" spans="1:12" ht="30">
+    <row r="596" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F596" s="11" t="s">
         <v>560</v>
       </c>
@@ -10366,7 +10372,7 @@
       <c r="K596" s="22"/>
       <c r="L596" s="22"/>
     </row>
-    <row r="597" spans="1:12">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F597" s="11" t="s">
         <v>562</v>
       </c>
@@ -10377,13 +10383,13 @@
       <c r="K597" s="22"/>
       <c r="L597" s="22"/>
     </row>
-    <row r="598" spans="1:12">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D598" s="24"/>
       <c r="J598" s="11"/>
       <c r="K598" s="22"/>
       <c r="L598" s="22"/>
     </row>
-    <row r="599" spans="1:12" ht="45">
+    <row r="599" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A599" s="11" t="s">
         <v>570</v>
       </c>
@@ -10410,7 +10416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="600" spans="1:12" ht="30">
+    <row r="600" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F600" s="24" t="s">
         <v>212</v>
       </c>
@@ -10421,7 +10427,7 @@
       <c r="K600" s="22"/>
       <c r="L600" s="22"/>
     </row>
-    <row r="601" spans="1:12" ht="45">
+    <row r="601" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F601" s="24" t="s">
         <v>551</v>
       </c>
@@ -10432,7 +10438,7 @@
       <c r="K601" s="22"/>
       <c r="L601" s="22"/>
     </row>
-    <row r="602" spans="1:12" ht="120">
+    <row r="602" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F602" s="11" t="s">
         <v>566</v>
       </c>
@@ -10443,7 +10449,7 @@
       <c r="K602" s="22"/>
       <c r="L602" s="22"/>
     </row>
-    <row r="603" spans="1:12" ht="30">
+    <row r="603" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F603" s="11" t="s">
         <v>560</v>
       </c>
@@ -10454,7 +10460,7 @@
       <c r="K603" s="22"/>
       <c r="L603" s="22"/>
     </row>
-    <row r="604" spans="1:12" ht="30">
+    <row r="604" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F604" s="11" t="s">
         <v>567</v>
       </c>
@@ -10465,7 +10471,7 @@
       <c r="K604" s="22"/>
       <c r="L604" s="22"/>
     </row>
-    <row r="605" spans="1:12">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F605" s="11" t="s">
         <v>569</v>
       </c>
@@ -10476,14 +10482,14 @@
       <c r="K605" s="22"/>
       <c r="L605" s="22"/>
     </row>
-    <row r="606" spans="1:12">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F606" s="5"/>
       <c r="G606" s="5"/>
       <c r="J606" s="11"/>
       <c r="K606" s="22"/>
       <c r="L606" s="22"/>
     </row>
-    <row r="607" spans="1:12" ht="45">
+    <row r="607" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A607" s="11" t="s">
         <v>680</v>
       </c>
@@ -10510,7 +10516,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="608" spans="1:12" ht="30">
+    <row r="608" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F608" s="24" t="s">
         <v>212</v>
       </c>
@@ -10521,7 +10527,7 @@
       <c r="K608" s="22"/>
       <c r="L608" s="22"/>
     </row>
-    <row r="609" spans="1:12" ht="45">
+    <row r="609" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F609" s="24" t="s">
         <v>551</v>
       </c>
@@ -10532,7 +10538,7 @@
       <c r="K609" s="22"/>
       <c r="L609" s="22"/>
     </row>
-    <row r="610" spans="1:12" ht="120">
+    <row r="610" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="F610" s="11" t="s">
         <v>572</v>
       </c>
@@ -10543,7 +10549,7 @@
       <c r="K610" s="22"/>
       <c r="L610" s="22"/>
     </row>
-    <row r="611" spans="1:12" ht="30">
+    <row r="611" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F611" s="11" t="s">
         <v>567</v>
       </c>
@@ -10554,7 +10560,7 @@
       <c r="K611" s="22"/>
       <c r="L611" s="22"/>
     </row>
-    <row r="612" spans="1:12">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F612" s="11" t="s">
         <v>569</v>
       </c>
@@ -10565,7 +10571,7 @@
       <c r="K612" s="22"/>
       <c r="L612" s="22"/>
     </row>
-    <row r="613" spans="1:12">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F613" s="11" t="s">
         <v>573</v>
       </c>
@@ -10576,34 +10582,34 @@
       <c r="K613" s="22"/>
       <c r="L613" s="22"/>
     </row>
-    <row r="614" spans="1:12">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J614" s="11"/>
       <c r="K614" s="22"/>
       <c r="L614" s="22"/>
     </row>
-    <row r="615" spans="1:12">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F615" s="5"/>
       <c r="G615" s="5"/>
       <c r="J615" s="11"/>
       <c r="K615" s="22"/>
       <c r="L615" s="22"/>
     </row>
-    <row r="616" spans="1:12">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J616" s="11"/>
       <c r="K616" s="22"/>
       <c r="L616" s="22"/>
     </row>
-    <row r="617" spans="1:12">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J617" s="11"/>
       <c r="K617" s="22"/>
       <c r="L617" s="22"/>
     </row>
-    <row r="618" spans="1:12">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J618" s="11"/>
       <c r="K618" s="22"/>
       <c r="L618" s="22"/>
     </row>
-    <row r="619" spans="1:12" ht="45">
+    <row r="619" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A619" s="11" t="s">
         <v>681</v>
       </c>
@@ -10629,7 +10635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="620" spans="1:12" ht="30">
+    <row r="620" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F620" s="24" t="s">
         <v>212</v>
       </c>
@@ -10640,7 +10646,7 @@
       <c r="K620" s="22"/>
       <c r="L620" s="22"/>
     </row>
-    <row r="621" spans="1:12" ht="45">
+    <row r="621" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F621" s="24" t="s">
         <v>577</v>
       </c>
@@ -10651,7 +10657,7 @@
       <c r="K621" s="22"/>
       <c r="L621" s="22"/>
     </row>
-    <row r="622" spans="1:12" ht="75">
+    <row r="622" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F622" s="11" t="s">
         <v>579</v>
       </c>
@@ -10662,11 +10668,11 @@
       <c r="K622" s="22"/>
       <c r="L622" s="22"/>
     </row>
-    <row r="623" spans="1:12">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J623" s="11"/>
       <c r="K623" s="22"/>
     </row>
-    <row r="624" spans="1:12" ht="45">
+    <row r="624" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A624" s="11" t="s">
         <v>574</v>
       </c>
@@ -10692,7 +10698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="625" spans="1:12" ht="30">
+    <row r="625" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F625" s="24" t="s">
         <v>212</v>
       </c>
@@ -10703,7 +10709,7 @@
       <c r="K625" s="22"/>
       <c r="L625" s="22"/>
     </row>
-    <row r="626" spans="1:12" ht="45">
+    <row r="626" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F626" s="24" t="s">
         <v>577</v>
       </c>
@@ -10714,7 +10720,7 @@
       <c r="K626" s="22"/>
       <c r="L626" s="22"/>
     </row>
-    <row r="627" spans="1:12" ht="75">
+    <row r="627" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F627" s="11" t="s">
         <v>583</v>
       </c>
@@ -10725,22 +10731,22 @@
       <c r="K627" s="22"/>
       <c r="L627" s="22"/>
     </row>
-    <row r="628" spans="1:12">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J628" s="11"/>
       <c r="K628" s="22"/>
       <c r="L628" s="22"/>
     </row>
-    <row r="629" spans="1:12">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J629" s="11"/>
       <c r="K629" s="22"/>
       <c r="L629" s="22"/>
     </row>
-    <row r="630" spans="1:12">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J630" s="11"/>
       <c r="K630" s="22"/>
       <c r="L630" s="22"/>
     </row>
-    <row r="631" spans="1:12" ht="45">
+    <row r="631" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A631" s="11" t="s">
         <v>581</v>
       </c>
@@ -10766,7 +10772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="632" spans="1:12" ht="30">
+    <row r="632" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F632" s="24" t="s">
         <v>212</v>
       </c>
@@ -10777,7 +10783,7 @@
       <c r="K632" s="22"/>
       <c r="L632" s="22"/>
     </row>
-    <row r="633" spans="1:12" ht="45">
+    <row r="633" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F633" s="24" t="s">
         <v>577</v>
       </c>
@@ -10788,7 +10794,7 @@
       <c r="K633" s="22"/>
       <c r="L633" s="22"/>
     </row>
-    <row r="634" spans="1:12" ht="75">
+    <row r="634" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F634" s="11" t="s">
         <v>586</v>
       </c>
@@ -10799,17 +10805,17 @@
       <c r="K634" s="22"/>
       <c r="L634" s="22"/>
     </row>
-    <row r="635" spans="1:12">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J635" s="11"/>
       <c r="K635" s="22"/>
       <c r="L635" s="22"/>
     </row>
-    <row r="636" spans="1:12">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J636" s="11"/>
       <c r="K636" s="22"/>
       <c r="L636" s="22"/>
     </row>
-    <row r="637" spans="1:12" ht="45">
+    <row r="637" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A637" s="11" t="s">
         <v>584</v>
       </c>
@@ -10835,7 +10841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="638" spans="1:12" ht="30">
+    <row r="638" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F638" s="24" t="s">
         <v>212</v>
       </c>
@@ -10846,7 +10852,7 @@
       <c r="K638" s="22"/>
       <c r="L638" s="22"/>
     </row>
-    <row r="639" spans="1:12" ht="45">
+    <row r="639" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F639" s="24" t="s">
         <v>577</v>
       </c>
@@ -10857,7 +10863,7 @@
       <c r="K639" s="22"/>
       <c r="L639" s="22"/>
     </row>
-    <row r="640" spans="1:12" ht="75">
+    <row r="640" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="F640" s="11" t="s">
         <v>589</v>
       </c>
@@ -10868,17 +10874,17 @@
       <c r="K640" s="22"/>
       <c r="L640" s="22"/>
     </row>
-    <row r="641" spans="1:12">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J641" s="11"/>
       <c r="K641" s="22"/>
       <c r="L641" s="22"/>
     </row>
-    <row r="642" spans="1:12">
+    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J642" s="11"/>
       <c r="K642" s="22"/>
       <c r="L642" s="22"/>
     </row>
-    <row r="643" spans="1:12" ht="45">
+    <row r="643" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A643" s="11" t="s">
         <v>587</v>
       </c>
@@ -10904,7 +10910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="644" spans="1:12" ht="30">
+    <row r="644" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F644" s="24" t="s">
         <v>212</v>
       </c>
@@ -10915,7 +10921,7 @@
       <c r="K644" s="22"/>
       <c r="L644" s="22"/>
     </row>
-    <row r="645" spans="1:12" ht="45">
+    <row r="645" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F645" s="24" t="s">
         <v>592</v>
       </c>
@@ -10926,7 +10932,7 @@
       <c r="K645" s="22"/>
       <c r="L645" s="22"/>
     </row>
-    <row r="646" spans="1:12" ht="30">
+    <row r="646" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F646" s="11" t="s">
         <v>594</v>
       </c>
@@ -10937,22 +10943,22 @@
       <c r="K646" s="22"/>
       <c r="L646" s="22"/>
     </row>
-    <row r="647" spans="1:12">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J647" s="11"/>
       <c r="K647" s="22"/>
       <c r="L647" s="22"/>
     </row>
-    <row r="648" spans="1:12">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J648" s="11"/>
       <c r="K648" s="22"/>
       <c r="L648" s="22"/>
     </row>
-    <row r="649" spans="1:12">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J649" s="11"/>
       <c r="K649" s="22"/>
       <c r="L649" s="22"/>
     </row>
-    <row r="650" spans="1:12" ht="45">
+    <row r="650" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A650" s="11" t="s">
         <v>590</v>
       </c>
@@ -10978,7 +10984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:12" ht="30">
+    <row r="651" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F651" s="24" t="s">
         <v>212</v>
       </c>
@@ -10989,7 +10995,7 @@
       <c r="K651" s="22"/>
       <c r="L651" s="22"/>
     </row>
-    <row r="652" spans="1:12" ht="45">
+    <row r="652" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F652" s="24" t="s">
         <v>592</v>
       </c>
@@ -11000,7 +11006,7 @@
       <c r="K652" s="22"/>
       <c r="L652" s="22"/>
     </row>
-    <row r="653" spans="1:12" ht="30">
+    <row r="653" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F653" s="11" t="s">
         <v>598</v>
       </c>
@@ -11014,22 +11020,22 @@
       <c r="K653" s="22"/>
       <c r="L653" s="22"/>
     </row>
-    <row r="654" spans="1:12">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J654" s="11"/>
       <c r="K654" s="22"/>
       <c r="L654" s="22"/>
     </row>
-    <row r="655" spans="1:12">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J655" s="11"/>
       <c r="K655" s="22"/>
       <c r="L655" s="22"/>
     </row>
-    <row r="656" spans="1:12">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J656" s="11"/>
       <c r="K656" s="22"/>
       <c r="L656" s="22"/>
     </row>
-    <row r="657" spans="1:12" ht="45">
+    <row r="657" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A657" s="11" t="s">
         <v>596</v>
       </c>
@@ -11055,7 +11061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="658" spans="1:12" ht="30">
+    <row r="658" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F658" s="24" t="s">
         <v>212</v>
       </c>
@@ -11066,7 +11072,7 @@
       <c r="K658" s="22"/>
       <c r="L658" s="22"/>
     </row>
-    <row r="659" spans="1:12" ht="45">
+    <row r="659" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F659" s="24" t="s">
         <v>602</v>
       </c>
@@ -11077,7 +11083,7 @@
       <c r="K659" s="22"/>
       <c r="L659" s="22"/>
     </row>
-    <row r="660" spans="1:12" ht="240">
+    <row r="660" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F660" s="11" t="s">
         <v>604</v>
       </c>
@@ -11088,17 +11094,17 @@
       <c r="K660" s="22"/>
       <c r="L660" s="22"/>
     </row>
-    <row r="661" spans="1:12">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J661" s="11"/>
       <c r="K661" s="22"/>
       <c r="L661" s="22"/>
     </row>
-    <row r="662" spans="1:12">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J662" s="11"/>
       <c r="K662" s="22"/>
       <c r="L662" s="22"/>
     </row>
-    <row r="663" spans="1:12" ht="45">
+    <row r="663" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A663" s="11" t="s">
         <v>600</v>
       </c>
@@ -11124,7 +11130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="664" spans="1:12" ht="30">
+    <row r="664" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F664" s="24" t="s">
         <v>212</v>
       </c>
@@ -11135,7 +11141,7 @@
       <c r="K664" s="22"/>
       <c r="L664" s="22"/>
     </row>
-    <row r="665" spans="1:12" ht="45">
+    <row r="665" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F665" s="24" t="s">
         <v>602</v>
       </c>
@@ -11146,7 +11152,7 @@
       <c r="K665" s="22"/>
       <c r="L665" s="22"/>
     </row>
-    <row r="666" spans="1:12" ht="240">
+    <row r="666" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F666" s="11" t="s">
         <v>607</v>
       </c>
@@ -11157,22 +11163,22 @@
       <c r="K666" s="22"/>
       <c r="L666" s="22"/>
     </row>
-    <row r="667" spans="1:12">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J667" s="11"/>
       <c r="K667" s="22"/>
       <c r="L667" s="22"/>
     </row>
-    <row r="668" spans="1:12">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J668" s="11"/>
       <c r="K668" s="22"/>
       <c r="L668" s="22"/>
     </row>
-    <row r="669" spans="1:12">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J669" s="11"/>
       <c r="K669" s="22"/>
       <c r="L669" s="22"/>
     </row>
-    <row r="670" spans="1:12" ht="45">
+    <row r="670" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A670" s="11" t="s">
         <v>605</v>
       </c>
@@ -11198,7 +11204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="671" spans="1:12" ht="30">
+    <row r="671" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F671" s="24" t="s">
         <v>212</v>
       </c>
@@ -11209,7 +11215,7 @@
       <c r="K671" s="22"/>
       <c r="L671" s="22"/>
     </row>
-    <row r="672" spans="1:12" ht="45">
+    <row r="672" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F672" s="24" t="s">
         <v>602</v>
       </c>
@@ -11220,7 +11226,7 @@
       <c r="K672" s="22"/>
       <c r="L672" s="22"/>
     </row>
-    <row r="673" spans="1:12" ht="240">
+    <row r="673" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F673" s="11" t="s">
         <v>609</v>
       </c>
@@ -11231,17 +11237,17 @@
       <c r="K673" s="22"/>
       <c r="L673" s="22"/>
     </row>
-    <row r="674" spans="1:12">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J674" s="11"/>
       <c r="K674" s="22"/>
       <c r="L674" s="22"/>
     </row>
-    <row r="675" spans="1:12">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J675" s="11"/>
       <c r="K675" s="22"/>
       <c r="L675" s="22"/>
     </row>
-    <row r="676" spans="1:12" ht="45">
+    <row r="676" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A676" s="11" t="s">
         <v>608</v>
       </c>
@@ -11267,7 +11273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="677" spans="1:12" ht="30">
+    <row r="677" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F677" s="24" t="s">
         <v>212</v>
       </c>
@@ -11278,7 +11284,7 @@
       <c r="K677" s="22"/>
       <c r="L677" s="22"/>
     </row>
-    <row r="678" spans="1:12" ht="45">
+    <row r="678" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F678" s="24" t="s">
         <v>602</v>
       </c>
@@ -11289,7 +11295,7 @@
       <c r="K678" s="22"/>
       <c r="L678" s="22"/>
     </row>
-    <row r="679" spans="1:12" ht="240">
+    <row r="679" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F679" s="11" t="s">
         <v>612</v>
       </c>
@@ -11300,17 +11306,17 @@
       <c r="K679" s="22"/>
       <c r="L679" s="22"/>
     </row>
-    <row r="680" spans="1:12">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J680" s="11"/>
       <c r="K680" s="22"/>
       <c r="L680" s="22"/>
     </row>
-    <row r="681" spans="1:12">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J681" s="11"/>
       <c r="K681" s="22"/>
       <c r="L681" s="22"/>
     </row>
-    <row r="682" spans="1:12" ht="45">
+    <row r="682" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A682" s="11" t="s">
         <v>610</v>
       </c>
@@ -11336,7 +11342,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="30">
+    <row r="683" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F683" s="24" t="s">
         <v>212</v>
       </c>
@@ -11347,7 +11353,7 @@
       <c r="K683" s="22"/>
       <c r="L683" s="22"/>
     </row>
-    <row r="684" spans="1:12" ht="45">
+    <row r="684" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F684" s="24" t="s">
         <v>602</v>
       </c>
@@ -11358,7 +11364,7 @@
       <c r="K684" s="22"/>
       <c r="L684" s="22"/>
     </row>
-    <row r="685" spans="1:12" ht="240">
+    <row r="685" spans="1:12" ht="240" x14ac:dyDescent="0.25">
       <c r="F685" s="11" t="s">
         <v>615</v>
       </c>
@@ -11369,17 +11375,17 @@
       <c r="K685" s="22"/>
       <c r="L685" s="22"/>
     </row>
-    <row r="686" spans="1:12">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J686" s="11"/>
       <c r="K686" s="22"/>
       <c r="L686" s="22"/>
     </row>
-    <row r="687" spans="1:12">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J687" s="11"/>
       <c r="K687" s="22"/>
       <c r="L687" s="22"/>
     </row>
-    <row r="688" spans="1:12" ht="45">
+    <row r="688" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A688" s="11" t="s">
         <v>613</v>
       </c>
@@ -11399,7 +11405,7 @@
       <c r="K688" s="22"/>
       <c r="L688" s="22"/>
     </row>
-    <row r="689" spans="1:13" ht="30">
+    <row r="689" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="E689" s="11">
         <v>1</v>
       </c>
@@ -11416,7 +11422,7 @@
       <c r="K689" s="22"/>
       <c r="L689" s="22"/>
     </row>
-    <row r="690" spans="1:13" ht="45">
+    <row r="690" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E690" s="11">
         <v>2</v>
       </c>
@@ -11433,7 +11439,7 @@
       <c r="K690" s="22"/>
       <c r="L690" s="22"/>
     </row>
-    <row r="691" spans="1:13" ht="45">
+    <row r="691" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="E691" s="11">
         <v>3</v>
       </c>
@@ -11457,17 +11463,17 @@
         <v>623</v>
       </c>
     </row>
-    <row r="692" spans="1:13">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J692" s="11"/>
       <c r="K692" s="22"/>
       <c r="L692" s="22"/>
     </row>
-    <row r="693" spans="1:13">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J693" s="11"/>
       <c r="K693" s="25"/>
       <c r="L693" s="22"/>
     </row>
-    <row r="694" spans="1:13" ht="45">
+    <row r="694" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A694" s="11" t="s">
         <v>616</v>
       </c>
@@ -11494,7 +11500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="695" spans="1:13" ht="30">
+    <row r="695" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F695" s="11" t="s">
         <v>212</v>
       </c>
@@ -11505,7 +11511,7 @@
       <c r="K695" s="22"/>
       <c r="L695" s="22"/>
     </row>
-    <row r="696" spans="1:13" ht="45">
+    <row r="696" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F696" s="11" t="s">
         <v>618</v>
       </c>
@@ -11515,7 +11521,7 @@
       <c r="J696" s="11"/>
       <c r="L696" s="22"/>
     </row>
-    <row r="697" spans="1:13" ht="45">
+    <row r="697" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F697" s="11" t="s">
         <v>626</v>
       </c>
@@ -11525,15 +11531,15 @@
       <c r="J697" s="11"/>
       <c r="L697" s="22"/>
     </row>
-    <row r="698" spans="1:13">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J698" s="11"/>
       <c r="L698" s="22"/>
     </row>
-    <row r="699" spans="1:13">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J699" s="11"/>
       <c r="L699" s="22"/>
     </row>
-    <row r="700" spans="1:13" ht="45">
+    <row r="700" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A700" s="11" t="s">
         <v>624</v>
       </c>
@@ -11560,7 +11566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="701" spans="1:13" ht="30">
+    <row r="701" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="F701" s="24" t="s">
         <v>212</v>
       </c>
@@ -11570,7 +11576,7 @@
       <c r="J701" s="11"/>
       <c r="L701" s="22"/>
     </row>
-    <row r="702" spans="1:13" ht="45">
+    <row r="702" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F702" s="24" t="s">
         <v>618</v>
       </c>
@@ -11580,7 +11586,7 @@
       <c r="J702" s="11"/>
       <c r="L702" s="22"/>
     </row>
-    <row r="703" spans="1:13" ht="45">
+    <row r="703" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="F703" s="11" t="s">
         <v>630</v>
       </c>
@@ -11590,15 +11596,15 @@
       <c r="J703" s="11"/>
       <c r="L703" s="22"/>
     </row>
-    <row r="704" spans="1:13">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J704" s="11"/>
       <c r="L704" s="22"/>
     </row>
-    <row r="705" spans="1:12">
+    <row r="705" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J705" s="11"/>
       <c r="L705" s="22"/>
     </row>
-    <row r="706" spans="1:12" ht="45">
+    <row r="706" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A706" s="11" t="s">
         <v>628</v>
       </c>
@@ -11625,7 +11631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="707" spans="1:12" ht="30">
+    <row r="707" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F707" s="24" t="s">
         <v>212</v>
       </c>
@@ -11635,7 +11641,7 @@
       <c r="J707" s="11"/>
       <c r="L707" s="22"/>
     </row>
-    <row r="708" spans="1:12" ht="45">
+    <row r="708" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F708" s="24" t="s">
         <v>618</v>
       </c>
@@ -11645,7 +11651,7 @@
       <c r="J708" s="11"/>
       <c r="L708" s="22"/>
     </row>
-    <row r="709" spans="1:12" ht="45">
+    <row r="709" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F709" s="11" t="s">
         <v>633</v>
       </c>
@@ -11655,15 +11661,15 @@
       <c r="J709" s="11"/>
       <c r="L709" s="22"/>
     </row>
-    <row r="710" spans="1:12">
+    <row r="710" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J710" s="11"/>
       <c r="L710" s="22"/>
     </row>
-    <row r="711" spans="1:12">
+    <row r="711" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J711" s="11"/>
       <c r="L711" s="22"/>
     </row>
-    <row r="712" spans="1:12" ht="45">
+    <row r="712" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A712" s="11" t="s">
         <v>631</v>
       </c>
@@ -11690,7 +11696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="713" spans="1:12" ht="30">
+    <row r="713" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F713" s="24" t="s">
         <v>212</v>
       </c>
@@ -11700,7 +11706,7 @@
       <c r="J713" s="11"/>
       <c r="L713" s="22"/>
     </row>
-    <row r="714" spans="1:12" ht="45">
+    <row r="714" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F714" s="24" t="s">
         <v>618</v>
       </c>
@@ -11710,7 +11716,7 @@
       <c r="J714" s="11"/>
       <c r="L714" s="22"/>
     </row>
-    <row r="715" spans="1:12" ht="45">
+    <row r="715" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F715" s="11" t="s">
         <v>636</v>
       </c>
@@ -11720,19 +11726,19 @@
       <c r="J715" s="11"/>
       <c r="L715" s="22"/>
     </row>
-    <row r="716" spans="1:12">
+    <row r="716" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J716" s="11"/>
       <c r="L716" s="22"/>
     </row>
-    <row r="717" spans="1:12">
+    <row r="717" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J717" s="11"/>
       <c r="L717" s="22"/>
     </row>
-    <row r="718" spans="1:12">
+    <row r="718" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J718" s="11"/>
       <c r="L718" s="22"/>
     </row>
-    <row r="719" spans="1:12" ht="45">
+    <row r="719" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A719" s="11" t="s">
         <v>634</v>
       </c>
@@ -11759,7 +11765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="720" spans="1:12" ht="30">
+    <row r="720" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F720" s="11" t="s">
         <v>212</v>
       </c>
@@ -11769,7 +11775,7 @@
       <c r="J720" s="11"/>
       <c r="L720" s="22"/>
     </row>
-    <row r="721" spans="1:12" ht="45">
+    <row r="721" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F721" s="11" t="s">
         <v>639</v>
       </c>
@@ -11779,7 +11785,7 @@
       <c r="J721" s="11"/>
       <c r="L721" s="22"/>
     </row>
-    <row r="722" spans="1:12" ht="30">
+    <row r="722" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F722" s="11" t="s">
         <v>641</v>
       </c>
@@ -11789,10 +11795,10 @@
       <c r="J722" s="11"/>
       <c r="L722" s="22"/>
     </row>
-    <row r="723" spans="1:12">
+    <row r="723" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J723" s="11"/>
     </row>
-    <row r="724" spans="1:12" ht="45">
+    <row r="724" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A724" s="11" t="s">
         <v>682</v>
       </c>
@@ -11819,7 +11825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="725" spans="1:12" ht="30">
+    <row r="725" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F725" s="11" t="s">
         <v>212</v>
       </c>
@@ -11829,7 +11835,7 @@
       <c r="J725" s="11"/>
       <c r="L725" s="22"/>
     </row>
-    <row r="726" spans="1:12" ht="45">
+    <row r="726" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F726" s="11" t="s">
         <v>639</v>
       </c>
@@ -11839,7 +11845,7 @@
       <c r="J726" s="11"/>
       <c r="L726" s="22"/>
     </row>
-    <row r="727" spans="1:12" ht="30">
+    <row r="727" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F727" s="11" t="s">
         <v>641</v>
       </c>
@@ -11849,7 +11855,7 @@
       <c r="J727" s="11"/>
       <c r="L727" s="22"/>
     </row>
-    <row r="728" spans="1:12" ht="45">
+    <row r="728" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F728" s="11" t="s">
         <v>645</v>
       </c>
@@ -11859,7 +11865,7 @@
       <c r="J728" s="11"/>
       <c r="L728" s="22"/>
     </row>
-    <row r="729" spans="1:12" ht="30">
+    <row r="729" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F729" s="11" t="s">
         <v>647</v>
       </c>
@@ -11869,15 +11875,15 @@
       <c r="J729" s="11"/>
       <c r="L729" s="22"/>
     </row>
-    <row r="730" spans="1:12">
+    <row r="730" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J730" s="11"/>
       <c r="L730" s="22"/>
     </row>
-    <row r="731" spans="1:12">
+    <row r="731" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J731" s="11"/>
       <c r="L731" s="22"/>
     </row>
-    <row r="732" spans="1:12" ht="45">
+    <row r="732" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A732" s="11" t="s">
         <v>637</v>
       </c>
@@ -11904,7 +11910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="733" spans="1:12" ht="30">
+    <row r="733" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F733" s="11" t="s">
         <v>212</v>
       </c>
@@ -11915,7 +11921,7 @@
       <c r="K733" s="25"/>
       <c r="L733" s="22"/>
     </row>
-    <row r="734" spans="1:12" ht="45">
+    <row r="734" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="F734" s="11" t="s">
         <v>652</v>
       </c>
@@ -11926,7 +11932,7 @@
       <c r="K734" s="25"/>
       <c r="L734" s="22"/>
     </row>
-    <row r="735" spans="1:12" ht="30">
+    <row r="735" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="F735" s="11" t="s">
         <v>653</v>
       </c>
@@ -11937,12 +11943,12 @@
       <c r="K735" s="25"/>
       <c r="L735" s="22"/>
     </row>
-    <row r="736" spans="1:12">
+    <row r="736" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J736" s="11"/>
       <c r="K736" s="25"/>
       <c r="L736" s="22"/>
     </row>
-    <row r="737" spans="1:12" ht="45">
+    <row r="737" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A737" s="11" t="s">
         <v>643</v>
       </c>
@@ -11962,7 +11968,7 @@
       <c r="K737" s="25"/>
       <c r="L737" s="22"/>
     </row>
-    <row r="738" spans="1:12" ht="30">
+    <row r="738" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E738" s="11">
         <v>1</v>
       </c>
@@ -11976,7 +11982,7 @@
       <c r="K738" s="25"/>
       <c r="L738" s="22"/>
     </row>
-    <row r="739" spans="1:12" ht="45">
+    <row r="739" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E739" s="11">
         <v>2</v>
       </c>
@@ -11990,7 +11996,7 @@
       <c r="K739" s="25"/>
       <c r="L739" s="22"/>
     </row>
-    <row r="740" spans="1:12" ht="30">
+    <row r="740" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E740" s="11">
         <v>3</v>
       </c>
@@ -12004,7 +12010,7 @@
       <c r="K740" s="25"/>
       <c r="L740" s="22"/>
     </row>
-    <row r="741" spans="1:12" ht="45">
+    <row r="741" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E741" s="11">
         <v>4</v>
       </c>
@@ -12018,7 +12024,7 @@
       <c r="K741" s="25"/>
       <c r="L741" s="22"/>
     </row>
-    <row r="742" spans="1:12" ht="30">
+    <row r="742" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E742" s="11">
         <v>5</v>
       </c>
@@ -12036,17 +12042,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="743" spans="1:12">
+    <row r="743" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J743" s="11"/>
       <c r="K743" s="25"/>
       <c r="L743" s="22"/>
     </row>
-    <row r="744" spans="1:12">
+    <row r="744" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J744" s="11"/>
       <c r="K744" s="25"/>
       <c r="L744" s="22"/>
     </row>
-    <row r="745" spans="1:12" ht="45">
+    <row r="745" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A745" s="11" t="s">
         <v>649</v>
       </c>
@@ -12066,7 +12072,7 @@
       <c r="K745" s="25"/>
       <c r="L745" s="22"/>
     </row>
-    <row r="746" spans="1:12" ht="30">
+    <row r="746" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E746" s="11">
         <v>1</v>
       </c>
@@ -12083,7 +12089,7 @@
       <c r="K746" s="25"/>
       <c r="L746" s="22"/>
     </row>
-    <row r="747" spans="1:12" ht="45">
+    <row r="747" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E747" s="11">
         <v>2</v>
       </c>
@@ -12100,7 +12106,7 @@
       <c r="K747" s="25"/>
       <c r="L747" s="22"/>
     </row>
-    <row r="748" spans="1:12" ht="30">
+    <row r="748" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E748" s="11">
         <v>3</v>
       </c>
@@ -12117,7 +12123,7 @@
       <c r="K748" s="25"/>
       <c r="L748" s="22"/>
     </row>
-    <row r="749" spans="1:12" ht="45">
+    <row r="749" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E749" s="11">
         <v>4</v>
       </c>
@@ -12134,7 +12140,7 @@
       <c r="K749" s="25"/>
       <c r="L749" s="22"/>
     </row>
-    <row r="750" spans="1:12" ht="30">
+    <row r="750" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E750" s="11">
         <v>5</v>
       </c>
@@ -12155,17 +12161,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="751" spans="1:12">
+    <row r="751" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J751" s="11"/>
       <c r="K751" s="25"/>
       <c r="L751" s="22"/>
     </row>
-    <row r="752" spans="1:12">
+    <row r="752" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J752" s="11"/>
       <c r="K752" s="25"/>
       <c r="L752" s="22"/>
     </row>
-    <row r="753" spans="1:12" ht="45">
+    <row r="753" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A753" s="11" t="s">
         <v>654</v>
       </c>
@@ -12185,7 +12191,7 @@
       <c r="K753" s="25"/>
       <c r="L753" s="22"/>
     </row>
-    <row r="754" spans="1:12" ht="30">
+    <row r="754" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E754" s="11">
         <v>1</v>
       </c>
@@ -12202,7 +12208,7 @@
       <c r="K754" s="25"/>
       <c r="L754" s="22"/>
     </row>
-    <row r="755" spans="1:12" ht="45">
+    <row r="755" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E755" s="11">
         <v>2</v>
       </c>
@@ -12219,7 +12225,7 @@
       <c r="K755" s="25"/>
       <c r="L755" s="22"/>
     </row>
-    <row r="756" spans="1:12" ht="30">
+    <row r="756" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E756" s="11">
         <v>3</v>
       </c>
@@ -12236,7 +12242,7 @@
       <c r="K756" s="25"/>
       <c r="L756" s="22"/>
     </row>
-    <row r="757" spans="1:12" ht="45">
+    <row r="757" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E757" s="11">
         <v>4</v>
       </c>
@@ -12253,7 +12259,7 @@
       <c r="K757" s="25"/>
       <c r="L757" s="22"/>
     </row>
-    <row r="758" spans="1:12" ht="30">
+    <row r="758" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E758" s="11">
         <v>5</v>
       </c>
@@ -12274,17 +12280,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="759" spans="1:12">
+    <row r="759" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J759" s="11"/>
       <c r="K759" s="25"/>
       <c r="L759" s="22"/>
     </row>
-    <row r="760" spans="1:12">
+    <row r="760" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J760" s="11"/>
       <c r="K760" s="25"/>
       <c r="L760" s="22"/>
     </row>
-    <row r="761" spans="1:12" ht="45">
+    <row r="761" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A761" s="11" t="s">
         <v>658</v>
       </c>
@@ -12304,7 +12310,7 @@
       <c r="K761" s="25"/>
       <c r="L761" s="22"/>
     </row>
-    <row r="762" spans="1:12" ht="30">
+    <row r="762" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E762" s="11">
         <v>1</v>
       </c>
@@ -12321,7 +12327,7 @@
       <c r="K762" s="25"/>
       <c r="L762" s="22"/>
     </row>
-    <row r="763" spans="1:12" ht="45">
+    <row r="763" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E763" s="11">
         <v>2</v>
       </c>
@@ -12338,7 +12344,7 @@
       <c r="K763" s="25"/>
       <c r="L763" s="22"/>
     </row>
-    <row r="764" spans="1:12" ht="30">
+    <row r="764" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E764" s="11">
         <v>3</v>
       </c>
@@ -12355,7 +12361,7 @@
       <c r="K764" s="25"/>
       <c r="L764" s="22"/>
     </row>
-    <row r="765" spans="1:12" ht="45">
+    <row r="765" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E765" s="11">
         <v>4</v>
       </c>
@@ -12372,7 +12378,7 @@
       <c r="K765" s="25"/>
       <c r="L765" s="22"/>
     </row>
-    <row r="766" spans="1:12" ht="30">
+    <row r="766" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E766" s="11">
         <v>5</v>
       </c>
@@ -12393,17 +12399,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="767" spans="1:12">
+    <row r="767" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J767" s="11"/>
       <c r="K767" s="25"/>
       <c r="L767" s="22"/>
     </row>
-    <row r="768" spans="1:12">
+    <row r="768" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J768" s="11"/>
       <c r="K768" s="25"/>
       <c r="L768" s="22"/>
     </row>
-    <row r="769" spans="1:12" ht="45">
+    <row r="769" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A769" s="11" t="s">
         <v>662</v>
       </c>
@@ -12423,7 +12429,7 @@
       <c r="K769" s="25"/>
       <c r="L769" s="22"/>
     </row>
-    <row r="770" spans="1:12" ht="30">
+    <row r="770" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E770" s="11">
         <v>1</v>
       </c>
@@ -12440,7 +12446,7 @@
       <c r="K770" s="25"/>
       <c r="L770" s="22"/>
     </row>
-    <row r="771" spans="1:12" ht="30">
+    <row r="771" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E771" s="11">
         <v>2</v>
       </c>
@@ -12457,7 +12463,7 @@
       <c r="K771" s="25"/>
       <c r="L771" s="22"/>
     </row>
-    <row r="772" spans="1:12" ht="30">
+    <row r="772" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E772" s="11">
         <v>3</v>
       </c>
@@ -12474,7 +12480,7 @@
       <c r="K772" s="25"/>
       <c r="L772" s="22"/>
     </row>
-    <row r="773" spans="1:12" ht="30">
+    <row r="773" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E773" s="11">
         <v>4</v>
       </c>
@@ -12495,17 +12501,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="774" spans="1:12">
+    <row r="774" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J774" s="11"/>
       <c r="K774" s="25"/>
       <c r="L774" s="22"/>
     </row>
-    <row r="775" spans="1:12">
+    <row r="775" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J775" s="11"/>
       <c r="K775" s="25"/>
       <c r="L775" s="22"/>
     </row>
-    <row r="776" spans="1:12" ht="45">
+    <row r="776" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A776" s="11" t="s">
         <v>666</v>
       </c>
@@ -12525,7 +12531,7 @@
       <c r="K776" s="25"/>
       <c r="L776" s="22"/>
     </row>
-    <row r="777" spans="1:12" ht="30">
+    <row r="777" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E777" s="11">
         <v>1</v>
       </c>
@@ -12542,7 +12548,7 @@
       <c r="K777" s="25"/>
       <c r="L777" s="22"/>
     </row>
-    <row r="778" spans="1:12" ht="30">
+    <row r="778" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="E778" s="11">
         <v>2</v>
       </c>
@@ -12559,7 +12565,7 @@
       <c r="K778" s="25"/>
       <c r="L778" s="22"/>
     </row>
-    <row r="779" spans="1:12" ht="60">
+    <row r="779" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E779" s="11">
         <v>3</v>
       </c>
@@ -12580,38 +12586,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="780" spans="1:12">
+    <row r="780" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J780" s="11"/>
       <c r="K780" s="25"/>
       <c r="L780" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="L1:L780"/>
+  <autoFilter ref="L1:L780" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K781:K1048576 K56:K398 C58:C110 C113:C333 C2:C47 C49:C56 K2:K47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K781:K1048576 K56:K398 C58:C110 C113:C333 C2:C47 C49:C56 K2:K47" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C776:C779 C769:C772 C761:C764 C753:C756 C745:C748 C737:C740 K538 K526 K520 K399:K515 C670:C674 C399:C667 C718:C727 C712:C716 C706:C710 C700:C704 C694:C698 C688:C692 C682:C686 C676:C680 C732:C735">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C776:C779 C769:C772 C761:C764 C753:C756 C745:C748 C737:C740 K538 K526 K520 K399:K515 C670:C674 C399:C667 C718:C727 C712:C716 C706:C710 C700:C704 C694:C698 C688:C692 C682:C686 C676:C680 C732:C735" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Anjana S, Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C780 C773:C774 C765:C767 C757:C759 C749:C751 C741:C743 C668:C669 C717 C711 C705 C699 C693 C687 C681 C675 C728:C731 C736">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C780 C773:C774 C765:C767 C757:C759 C749:C751 C741:C743 C668:C669 C717 C711 C705 C699 C693 C687 C681 C675 C728:C731 C736" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B399 B405:B406 B412:B413 B420 B14:B16 B8 B22:B25 B30:B32 B38:B40 B135 B127 B119 B125 B113 B103:B104 B97 B95 B89 B87 B80:B81 B149 B143 B214:B215 B196 B182 B169 B167 B72:B74 B66 B209 B203 B58 B56 B49 B189 B177 B160 B157 B151 B133 B141 B221 B237:B238 B228:B230 B240 B254:B255 B247 B263 B311 B319:B320 B287 B326:B327 B289 B295:B296 B281 B302:B303 B309 B273 B279 B2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B399 B405:B406 B412:B413 B420 B14:B16 B8 B22:B25 B30:B32 B38:B40 B135 B127 B119 B125 B113 B103:B104 B97 B95 B89 B87 B80:B81 B149 B143 B214:B215 B196 B182 B169 B167 B72:B74 B66 B209 B203 B58 B56 B49 B189 B177 B160 B157 B151 B133 B141 B221 B237:B238 B228:B230 B240 B254:B255 B247 B263 B311 B319:B320 B287 B326:B327 B289 B295:B296 B281 B302:B303 B309 B273 B279 B2" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L399:L622 L624:L722 L724:L780 L2:L47 L56:L397">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L399:L622 L624:L722 L724:L780 L2:L47 L56:L397" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Pass, Fail, Blocked"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K691 K779 K773 K732 K742 K750 K758 K766">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K691 K779 K773 K732 K742 K750 K758 K766" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"Anjana S, Salini S, Preethi Pathrose, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K516:K519 K780 K774:K778 K767:K772 K539:K690 K521:K525 K724 K719 K712 K706 K700 K527:K537 K733:K741 K743:K749 K751:K757 K759:K765 K692:K695">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K516:K519 K780 K774:K778 K767:K772 K539:K690 K521:K525 K724 K719 K712 K706 K700 K527:K537 K733:K741 K743:K749 K751:K757 K759:K765 K692:K695" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"Anjana S, Salini S, Preethi J, Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12621,14 +12627,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="3" width="29.140625" customWidth="1"/>
@@ -12637,7 +12643,7 @@
     <col min="6" max="6" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>222</v>
       </c>
@@ -12655,13 +12661,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="45">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>226</v>
       </c>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="45">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>1</v>
       </c>
@@ -12672,7 +12678,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="75">
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>2</v>
       </c>
@@ -12683,7 +12689,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105">
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>3</v>
       </c>
@@ -12694,7 +12700,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>4</v>
       </c>
@@ -12705,7 +12711,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>235</v>
       </c>
@@ -12714,7 +12720,7 @@
       </c>
       <c r="C7" s="15"/>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>1</v>
       </c>
@@ -12725,7 +12731,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="75">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>2</v>
       </c>
@@ -12736,7 +12742,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="105">
+    <row r="10" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>3</v>
       </c>
@@ -12747,7 +12753,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>4</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>5</v>
       </c>
@@ -12772,7 +12778,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -12789,7 +12795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="75">
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>2</v>
       </c>
@@ -12800,7 +12806,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="105">
+    <row r="15" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>3</v>
       </c>
@@ -12811,7 +12817,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>4</v>
       </c>
@@ -12822,7 +12828,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>243</v>
       </c>
@@ -12839,7 +12845,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75">
+    <row r="18" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>2</v>
       </c>
@@ -12850,7 +12856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="105">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>3</v>
       </c>
@@ -12861,7 +12867,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="45">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>4</v>
       </c>
@@ -12872,7 +12878,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="60">
+    <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>5</v>
       </c>
@@ -12883,7 +12889,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>247</v>
       </c>
@@ -12900,7 +12906,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="75">
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>2</v>
       </c>
@@ -12911,7 +12917,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="105">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>3</v>
       </c>
@@ -12922,7 +12928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>4</v>
       </c>
@@ -12933,7 +12939,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="45">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>251</v>
       </c>
@@ -12950,7 +12956,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75">
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>2</v>
       </c>
@@ -12961,7 +12967,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="105">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>3</v>
       </c>
@@ -12972,7 +12978,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="45">
+    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>4</v>
       </c>
@@ -12983,7 +12989,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="45">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>5</v>
       </c>
@@ -12994,7 +13000,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>6</v>
       </c>
@@ -13005,7 +13011,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="45">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>257</v>
       </c>
@@ -13022,7 +13028,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="75">
+    <row r="34" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>2</v>
       </c>
@@ -13033,7 +13039,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="105">
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>3</v>
       </c>
@@ -13044,7 +13050,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="45">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>4</v>
       </c>
@@ -13055,7 +13061,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="45">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>261</v>
       </c>
@@ -13072,7 +13078,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="75">
+    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>2</v>
       </c>
@@ -13083,7 +13089,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="105">
+    <row r="39" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>3</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45">
+    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>4</v>
       </c>
@@ -13105,7 +13111,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -13116,7 +13122,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="45">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>265</v>
       </c>
@@ -13133,7 +13139,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="75">
+    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C44">
         <v>2</v>
       </c>
@@ -13144,7 +13150,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="105">
+    <row r="45" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C45">
         <v>3</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="45">
+    <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C46">
         <v>4</v>
       </c>
@@ -13166,7 +13172,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="180">
+    <row r="47" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C47">
         <v>5</v>
       </c>
@@ -13177,7 +13183,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="45">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>272</v>
       </c>
@@ -13194,7 +13200,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75">
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C49">
         <v>2</v>
       </c>
@@ -13205,7 +13211,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="105">
+    <row r="50" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C50">
         <v>3</v>
       </c>
@@ -13216,7 +13222,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="45">
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C51">
         <v>4</v>
       </c>
@@ -13227,7 +13233,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="180">
+    <row r="52" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="C52">
         <v>5</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60">
+    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C53">
         <v>6</v>
       </c>
@@ -13249,7 +13255,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="30">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>272</v>
       </c>
@@ -13264,7 +13270,7 @@
       </c>
       <c r="E54" s="15"/>
     </row>
-    <row r="55" spans="1:5" ht="75">
+    <row r="55" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C55">
         <v>2</v>
       </c>
@@ -13275,7 +13281,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="30">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C56">
         <v>3</v>
       </c>
@@ -13286,7 +13292,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>272</v>
       </c>
@@ -13301,7 +13307,7 @@
       </c>
       <c r="E57" s="15"/>
     </row>
-    <row r="58" spans="1:5" ht="75">
+    <row r="58" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C58">
         <v>2</v>
       </c>
@@ -13312,7 +13318,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="60">
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C59">
         <v>3</v>
       </c>
@@ -13323,12 +13329,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C60" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="45">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>286</v>
       </c>
@@ -13342,7 +13348,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="60">
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D62" s="15" t="s">
         <v>206</v>
       </c>
@@ -13350,7 +13356,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="30">
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D63" s="15" t="s">
         <v>208</v>
       </c>
@@ -13358,7 +13364,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="45">
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>286</v>
       </c>
@@ -13372,7 +13378,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="60">
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D66" s="15" t="s">
         <v>206</v>
       </c>
@@ -13380,7 +13386,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="30">
+    <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D67" s="15" t="s">
         <v>287</v>
       </c>
@@ -13388,7 +13394,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="30">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -13402,7 +13408,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="60">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D70" s="15" t="s">
         <v>206</v>
       </c>
@@ -13410,7 +13416,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="165">
+    <row r="71" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="D71" s="15" t="s">
         <v>289</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="30">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D72" s="15" t="s">
         <v>290</v>
       </c>
@@ -13426,7 +13432,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="45">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -13440,7 +13446,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="75">
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="D74" s="15" t="s">
         <v>214</v>
       </c>
@@ -13448,7 +13454,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="210">
+    <row r="75" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="D75" s="15" t="s">
         <v>216</v>
       </c>
@@ -13456,7 +13462,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="30">
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D76" s="15" t="s">
         <v>218</v>
       </c>
@@ -13464,7 +13470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="30">
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D77" s="15" t="s">
         <v>220</v>
       </c>
@@ -13472,7 +13478,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>4</v>
       </c>
@@ -13486,7 +13492,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="60">
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D80" s="15" t="s">
         <v>293</v>
       </c>
@@ -13494,7 +13500,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="240">
+    <row r="81" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="D81" s="15" t="s">
         <v>295</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="30">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D82" s="15" t="s">
         <v>297</v>
       </c>
@@ -13510,7 +13516,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="60">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -13524,7 +13530,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="60">
+    <row r="84" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D84" s="15" t="s">
         <v>293</v>
       </c>
@@ -13532,7 +13538,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="45">
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D85" s="15" t="s">
         <v>300</v>
       </c>
@@ -13540,7 +13546,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="30">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D86" s="15" t="s">
         <v>301</v>
       </c>
@@ -13548,7 +13554,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="30">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -13562,7 +13568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="60">
+    <row r="89" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D89" s="15" t="s">
         <v>293</v>
       </c>
@@ -13570,7 +13576,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="45">
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D90" s="15" t="s">
         <v>300</v>
       </c>
@@ -13578,7 +13584,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="30">
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D91" s="15" t="s">
         <v>304</v>
       </c>
@@ -13586,7 +13592,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="30">
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>7</v>
       </c>
@@ -13600,7 +13606,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="60">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D94" s="15" t="s">
         <v>293</v>
       </c>
@@ -13608,7 +13614,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="45">
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D95" s="15" t="s">
         <v>307</v>
       </c>
@@ -13616,7 +13622,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="30">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D96" s="15" t="s">
         <v>308</v>
       </c>
@@ -13624,7 +13630,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="30">
+    <row r="98" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>8.8888888888888797E+104</v>
       </c>
@@ -13638,7 +13644,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="60">
+    <row r="99" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D99" s="15" t="s">
         <v>311</v>
       </c>
@@ -13646,7 +13652,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="225">
+    <row r="100" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="D100" s="15" t="s">
         <v>313</v>
       </c>
@@ -13654,7 +13660,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="45">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>9</v>
       </c>
@@ -13668,7 +13674,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="60">
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D103" s="15" t="s">
         <v>316</v>
       </c>
@@ -13676,7 +13682,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="45">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D104" s="15" t="s">
         <v>307</v>
       </c>
@@ -13684,7 +13690,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="30">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D105" s="15" t="s">
         <v>301</v>
       </c>
@@ -13692,7 +13698,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="30">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>10</v>
       </c>
@@ -13706,7 +13712,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="60">
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D109" s="15" t="s">
         <v>319</v>
       </c>
@@ -13714,7 +13720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="45">
+    <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D110" s="15" t="s">
         <v>307</v>
       </c>
@@ -13722,7 +13728,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30">
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D111" s="15" t="s">
         <v>308</v>
       </c>
@@ -13730,7 +13736,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="30">
+    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -13744,7 +13750,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="60">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D113" s="15" t="s">
         <v>319</v>
       </c>
@@ -13752,7 +13758,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="45">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D114" s="15" t="s">
         <v>307</v>
       </c>
@@ -13760,7 +13766,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="30">
+    <row r="115" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D115" s="15" t="s">
         <v>304</v>
       </c>
@@ -13768,7 +13774,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="30">
+    <row r="118" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>12</v>
       </c>
@@ -13782,7 +13788,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="60">
+    <row r="119" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D119" s="15" t="s">
         <v>322</v>
       </c>
@@ -13790,7 +13796,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="45">
+    <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D120" s="15" t="s">
         <v>323</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="30">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>13</v>
       </c>
@@ -13812,7 +13818,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="60">
+    <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D122" s="15" t="s">
         <v>325</v>
       </c>
@@ -13820,7 +13826,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="150">
+    <row r="123" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="D123" s="15" t="s">
         <v>327</v>
       </c>
@@ -13828,7 +13834,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="30">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>13</v>
       </c>
@@ -13842,7 +13848,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="60">
+    <row r="127" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="D127" s="15" t="s">
         <v>330</v>
       </c>
@@ -13850,7 +13856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="45">
+    <row r="128" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="D128" s="15" t="s">
         <v>332</v>
       </c>
@@ -13858,17 +13864,17 @@
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="45">
+    <row r="134" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>336</v>
       </c>
@@ -13879,119 +13885,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>384</v>
       </c>
